--- a/out/01 factor_values.xlsx
+++ b/out/01 factor_values.xlsx
@@ -538,34 +538,34 @@
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>5062.013458560402</v>
+        <v>5086.153335856128</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9015337936114683</v>
+        <v>0.8540265712417093</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11574</v>
+        <v>11580</v>
       </c>
       <c r="K2" t="n">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="L2" t="n">
-        <v>12241</v>
+        <v>12246</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05448901233559349</v>
+        <v>0.05438510534051935</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.04905457279069363</v>
+        <v>-0.04997149770573032</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -596,34 +596,34 @@
         <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>5062.013458560402</v>
+        <v>5086.153335856128</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9015337936114683</v>
+        <v>0.8540265712417093</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K3" t="n">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="L3" t="n">
-        <v>988</v>
+        <v>996</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.7891566265060241</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5886908693910902</v>
+        <v>0.5841822769126253</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -654,34 +654,34 @@
         <v>16</v>
       </c>
       <c r="F4" t="n">
-        <v>1201.084055545566</v>
+        <v>1204.914932712188</v>
       </c>
       <c r="G4" t="n">
-        <v>9.572574959585271e-247</v>
+        <v>1.439258204408449e-247</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04199055645104691</v>
+        <v>0.0675069979266494</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2144</v>
+        <v>2153</v>
       </c>
       <c r="K4" t="n">
         <v>99</v>
       </c>
       <c r="L4" t="n">
-        <v>2243</v>
+        <v>2252</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04413731609451627</v>
+        <v>0.04396092362344583</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.02656152611675559</v>
+        <v>-0.02146796566642512</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -712,34 +712,34 @@
         <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>1201.084055545566</v>
+        <v>1204.914932712188</v>
       </c>
       <c r="G5" t="n">
-        <v>9.572574959585271e-247</v>
+        <v>1.439258204408449e-247</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04199055645104691</v>
+        <v>0.0675069979266494</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>2515</v>
+        <v>2517</v>
       </c>
       <c r="K5" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L5" t="n">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04698749526335733</v>
+        <v>0.04659090909090909</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.02410878630839487</v>
+        <v>-0.02146796566642512</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -770,34 +770,34 @@
         <v>16</v>
       </c>
       <c r="F6" t="n">
-        <v>1201.084055545566</v>
+        <v>1204.914932712188</v>
       </c>
       <c r="G6" t="n">
-        <v>9.572574959585271e-247</v>
+        <v>1.439258204408449e-247</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04199055645104691</v>
+        <v>0.0675069979266494</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>1492</v>
+        <v>1482</v>
       </c>
       <c r="K6" t="n">
         <v>97</v>
       </c>
       <c r="L6" t="n">
-        <v>1589</v>
+        <v>1579</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06104468219005664</v>
+        <v>0.06143128562381254</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.02410878630839487</v>
+        <v>-0.02146796566642512</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -828,34 +828,34 @@
         <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>1201.084055545566</v>
+        <v>1204.914932712188</v>
       </c>
       <c r="G7" t="n">
-        <v>9.572574959585271e-247</v>
+        <v>1.439258204408449e-247</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04199055645104691</v>
+        <v>0.0675069979266494</v>
       </c>
       <c r="I7" t="n">
         <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="K7" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L7" t="n">
         <v>1240</v>
       </c>
       <c r="M7" t="n">
-        <v>0.075</v>
+        <v>0.07661290322580645</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.02410878630839487</v>
+        <v>-0.02146796566642512</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -886,34 +886,34 @@
         <v>16</v>
       </c>
       <c r="F8" t="n">
-        <v>1201.084055545566</v>
+        <v>1204.914932712188</v>
       </c>
       <c r="G8" t="n">
-        <v>9.572574959585271e-247</v>
+        <v>1.439258204408449e-247</v>
       </c>
       <c r="H8" t="n">
-        <v>0.04199055645104691</v>
+        <v>0.0675069979266494</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="K8" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L8" t="n">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="M8" t="n">
-        <v>0.09540636042402827</v>
+        <v>0.0960352422907489</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.004113429701528906</v>
+        <v>-0.006867781381455079</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -944,34 +944,34 @@
         <v>16</v>
       </c>
       <c r="F9" t="n">
-        <v>1201.084055545566</v>
+        <v>1204.914932712188</v>
       </c>
       <c r="G9" t="n">
-        <v>9.572574959585271e-247</v>
+        <v>1.439258204408449e-247</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04199055645104691</v>
+        <v>0.0675069979266494</v>
       </c>
       <c r="I9" t="n">
         <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="K9" t="n">
         <v>108</v>
       </c>
       <c r="L9" t="n">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1150159744408946</v>
+        <v>0.1147715196599362</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.004113429701528906</v>
+        <v>-0.001947394652752912</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -1002,34 +1002,34 @@
         <v>16</v>
       </c>
       <c r="F10" t="n">
-        <v>1201.084055545566</v>
+        <v>1204.914932712188</v>
       </c>
       <c r="G10" t="n">
-        <v>9.572574959585271e-247</v>
+        <v>1.439258204408449e-247</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04199055645104691</v>
+        <v>0.0675069979266494</v>
       </c>
       <c r="I10" t="n">
         <v>6</v>
       </c>
       <c r="J10" t="n">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="K10" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L10" t="n">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="M10" t="n">
-        <v>0.150253807106599</v>
+        <v>0.1515768056968464</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01643824212384531</v>
+        <v>-0.001947394652752912</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1060,34 +1060,34 @@
         <v>16</v>
       </c>
       <c r="F11" t="n">
-        <v>1201.084055545566</v>
+        <v>1204.914932712188</v>
       </c>
       <c r="G11" t="n">
-        <v>9.572574959585271e-247</v>
+        <v>1.439258204408449e-247</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04199055645104691</v>
+        <v>0.0675069979266494</v>
       </c>
       <c r="I11" t="n">
         <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="K11" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L11" t="n">
         <v>730</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1808219178082192</v>
+        <v>0.1794520547945206</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02384648188613714</v>
+        <v>-0.001947394652752912</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
@@ -1118,13 +1118,13 @@
         <v>16</v>
       </c>
       <c r="F12" t="n">
-        <v>1201.084055545566</v>
+        <v>1204.914932712188</v>
       </c>
       <c r="G12" t="n">
-        <v>9.572574959585271e-247</v>
+        <v>1.439258204408449e-247</v>
       </c>
       <c r="H12" t="n">
-        <v>0.04199055645104691</v>
+        <v>0.0675069979266494</v>
       </c>
       <c r="I12" t="n">
         <v>8</v>
@@ -1142,10 +1142,10 @@
         <v>0.2225806451612903</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O12" t="n">
-        <v>0.05491110534574911</v>
+        <v>0.06019144052306533</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -1176,13 +1176,13 @@
         <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>1201.084055545566</v>
+        <v>1204.914932712188</v>
       </c>
       <c r="G13" t="n">
-        <v>9.572574959585271e-247</v>
+        <v>1.439258204408449e-247</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04199055645104691</v>
+        <v>0.0675069979266494</v>
       </c>
       <c r="I13" t="n">
         <v>9</v>
@@ -1191,19 +1191,19 @@
         <v>137</v>
       </c>
       <c r="K13" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2634408602150538</v>
+        <v>0.267379679144385</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O13" t="n">
-        <v>0.05491110534574911</v>
+        <v>0.06019144052306533</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
@@ -1234,34 +1234,34 @@
         <v>16</v>
       </c>
       <c r="F14" t="n">
-        <v>1201.084055545566</v>
+        <v>1204.914932712188</v>
       </c>
       <c r="G14" t="n">
-        <v>9.572574959585271e-247</v>
+        <v>1.439258204408449e-247</v>
       </c>
       <c r="H14" t="n">
-        <v>0.04199055645104691</v>
+        <v>0.0675069979266494</v>
       </c>
       <c r="I14" t="n">
         <v>10</v>
       </c>
       <c r="J14" t="n">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K14" t="n">
         <v>40</v>
       </c>
       <c r="L14" t="n">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2197802197802198</v>
+        <v>0.2150537634408602</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O14" t="n">
-        <v>0.05491110534574911</v>
+        <v>0.06019144052306533</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1292,34 +1292,34 @@
         <v>16</v>
       </c>
       <c r="F15" t="n">
-        <v>1201.084055545566</v>
+        <v>1204.914932712188</v>
       </c>
       <c r="G15" t="n">
-        <v>9.572574959585271e-247</v>
+        <v>1.439258204408449e-247</v>
       </c>
       <c r="H15" t="n">
-        <v>0.04199055645104691</v>
+        <v>0.0675069979266494</v>
       </c>
       <c r="I15" t="n">
         <v>11</v>
       </c>
       <c r="J15" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K15" t="n">
         <v>38</v>
       </c>
       <c r="L15" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2467532467532468</v>
+        <v>0.2435897435897436</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O15" t="n">
-        <v>0.05491110534574911</v>
+        <v>0.06019144052306533</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
@@ -1350,34 +1350,34 @@
         <v>16</v>
       </c>
       <c r="F16" t="n">
-        <v>1201.084055545566</v>
+        <v>1204.914932712188</v>
       </c>
       <c r="G16" t="n">
-        <v>9.572574959585271e-247</v>
+        <v>1.439258204408449e-247</v>
       </c>
       <c r="H16" t="n">
-        <v>0.04199055645104691</v>
+        <v>0.0675069979266494</v>
       </c>
       <c r="I16" t="n">
         <v>12</v>
       </c>
       <c r="J16" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K16" t="n">
         <v>34</v>
       </c>
       <c r="L16" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2428571428571429</v>
+        <v>0.2411347517730496</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O16" t="n">
-        <v>0.07461992562469252</v>
+        <v>0.06019144052306533</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
@@ -1408,13 +1408,13 @@
         <v>16</v>
       </c>
       <c r="F17" t="n">
-        <v>1201.084055545566</v>
+        <v>1204.914932712188</v>
       </c>
       <c r="G17" t="n">
-        <v>9.572574959585271e-247</v>
+        <v>1.439258204408449e-247</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04199055645104691</v>
+        <v>0.0675069979266494</v>
       </c>
       <c r="I17" t="n">
         <v>13</v>
@@ -1423,19 +1423,19 @@
         <v>129</v>
       </c>
       <c r="K17" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L17" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2989130434782609</v>
+        <v>0.3064516129032258</v>
       </c>
       <c r="N17" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1259283425193481</v>
+        <v>0.1118903265427702</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
@@ -1466,34 +1466,34 @@
         <v>16</v>
       </c>
       <c r="F18" t="n">
-        <v>1201.084055545566</v>
+        <v>1204.914932712188</v>
       </c>
       <c r="G18" t="n">
-        <v>9.572574959585271e-247</v>
+        <v>1.439258204408449e-247</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04199055645104691</v>
+        <v>0.0675069979266494</v>
       </c>
       <c r="I18" t="n">
         <v>14</v>
       </c>
       <c r="J18" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K18" t="n">
         <v>34</v>
       </c>
       <c r="L18" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3434343434343434</v>
+        <v>0.34</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1259283425193481</v>
+        <v>0.1118903265427702</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
@@ -1524,34 +1524,34 @@
         <v>16</v>
       </c>
       <c r="F19" t="n">
-        <v>1201.084055545566</v>
+        <v>1204.914932712188</v>
       </c>
       <c r="G19" t="n">
-        <v>9.572574959585271e-247</v>
+        <v>1.439258204408449e-247</v>
       </c>
       <c r="H19" t="n">
-        <v>0.04199055645104691</v>
+        <v>0.0675069979266494</v>
       </c>
       <c r="I19" t="n">
         <v>15</v>
       </c>
       <c r="J19" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K19" t="n">
         <v>219</v>
       </c>
       <c r="L19" t="n">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4591194968553459</v>
+        <v>0.4600840336134454</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1874363432530317</v>
+        <v>0.1886182581548889</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
@@ -1582,34 +1582,34 @@
         <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>220.5158252870746</v>
+        <v>220.8241972240276</v>
       </c>
       <c r="G20" t="n">
-        <v>6.980226719986232e-50</v>
+        <v>5.978698520033615e-50</v>
       </c>
       <c r="H20" t="n">
-        <v>0.02509623056070723</v>
+        <v>0.03113305331997251</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>8696</v>
+        <v>8702</v>
       </c>
       <c r="K20" t="n">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="L20" t="n">
-        <v>9494</v>
+        <v>9503</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0840530861596798</v>
+        <v>0.08428917184047142</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.01880236057734017</v>
+        <v>-0.01358754557154232</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
@@ -1640,34 +1640,34 @@
         <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>220.5158252870746</v>
+        <v>220.8241972240276</v>
       </c>
       <c r="G21" t="n">
-        <v>6.980226719986232e-50</v>
+        <v>5.978698520033615e-50</v>
       </c>
       <c r="H21" t="n">
-        <v>0.02509623056070723</v>
+        <v>0.03113305331997251</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>3086</v>
+        <v>3088</v>
       </c>
       <c r="K21" t="n">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="L21" t="n">
-        <v>3735</v>
+        <v>3739</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1737617135207497</v>
+        <v>0.1741107247927253</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O21" t="n">
-        <v>0.043704184780327</v>
+        <v>0.03125003461211592</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
@@ -1678,11 +1678,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>close_code_Information Provided / Training</t>
+          <t>close_code_Data Correction</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1698,49 +1698,49 @@
         <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7859219645519846</v>
+        <v>116.6857017813586</v>
       </c>
       <c r="G22" t="n">
-        <v>0.375336089387886</v>
+        <v>3.363625883314413e-27</v>
       </c>
       <c r="H22" t="n">
-        <v>0.007007616490164711</v>
+        <v>0.02110987240302388</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>7052</v>
+        <v>9525</v>
       </c>
       <c r="K22" t="n">
-        <v>848</v>
+        <v>1341</v>
       </c>
       <c r="L22" t="n">
-        <v>7900</v>
+        <v>10866</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1073417721518987</v>
+        <v>0.1234124792932082</v>
       </c>
       <c r="N22" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.0111501935098194</v>
+        <v>0.00428781991035862</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>close_code_Information Provided / Training: 0.0</t>
+          <t>close_code_Data Correction: 0.0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>close_code_Information Provided / Training</t>
+          <t>close_code_Data Correction</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1756,38 +1756,38 @@
         <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7859219645519846</v>
+        <v>116.6857017813586</v>
       </c>
       <c r="G23" t="n">
-        <v>0.375336089387886</v>
+        <v>3.363625883314413e-27</v>
       </c>
       <c r="H23" t="n">
-        <v>0.007007616490164711</v>
+        <v>0.02110987240302388</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>4730</v>
+        <v>2265</v>
       </c>
       <c r="K23" t="n">
-        <v>599</v>
+        <v>111</v>
       </c>
       <c r="L23" t="n">
-        <v>5329</v>
+        <v>2376</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1124038281103397</v>
+        <v>0.04671717171717172</v>
       </c>
       <c r="N23" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01042493491663729</v>
+        <v>-0.03245423634619939</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>close_code_Information Provided / Training: 1.0</t>
+          <t>close_code_Data Correction: 1.0</t>
         </is>
       </c>
     </row>
@@ -1814,34 +1814,34 @@
         <v>16</v>
       </c>
       <c r="F24" t="n">
-        <v>384.3171526993451</v>
+        <v>392.3837685207457</v>
       </c>
       <c r="G24" t="n">
-        <v>1.358657888241235e-72</v>
+        <v>2.752934587762642e-74</v>
       </c>
       <c r="H24" t="n">
-        <v>0.006951365941291337</v>
+        <v>0.01301928421089169</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>6301</v>
+        <v>6308</v>
       </c>
       <c r="K24" t="n">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="L24" t="n">
-        <v>6908</v>
+        <v>6914</v>
       </c>
       <c r="M24" t="n">
-        <v>0.08786913723219456</v>
+        <v>0.08764824992768296</v>
       </c>
       <c r="N24" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.00188231226842886</v>
+        <v>-0.00237484453601966</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
@@ -1872,34 +1872,34 @@
         <v>16</v>
       </c>
       <c r="F25" t="n">
-        <v>384.3171526993451</v>
+        <v>392.3837685207457</v>
       </c>
       <c r="G25" t="n">
-        <v>1.358657888241235e-72</v>
+        <v>2.752934587762642e-74</v>
       </c>
       <c r="H25" t="n">
-        <v>0.006951365941291337</v>
+        <v>0.01301928421089169</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>4398</v>
+        <v>4400</v>
       </c>
       <c r="K25" t="n">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="L25" t="n">
-        <v>4910</v>
+        <v>4916</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1042769857433809</v>
+        <v>0.1049633848657445</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.003888704364775619</v>
+        <v>-0.004200132154908678</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
@@ -1930,13 +1930,13 @@
         <v>16</v>
       </c>
       <c r="F26" t="n">
-        <v>384.3171526993451</v>
+        <v>392.3837685207457</v>
       </c>
       <c r="G26" t="n">
-        <v>1.358657888241235e-72</v>
+        <v>2.752934587762642e-74</v>
       </c>
       <c r="H26" t="n">
-        <v>0.006951365941291337</v>
+        <v>0.01301928421089169</v>
       </c>
       <c r="I26" t="n">
         <v>2</v>
@@ -1945,19 +1945,19 @@
         <v>744</v>
       </c>
       <c r="K26" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L26" t="n">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1806167400881057</v>
+        <v>0.1815181518151815</v>
       </c>
       <c r="N26" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O26" t="n">
-        <v>0.03167517574785847</v>
+        <v>0.0352902635563975</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
@@ -1988,34 +1988,34 @@
         <v>16</v>
       </c>
       <c r="F27" t="n">
-        <v>384.3171526993451</v>
+        <v>392.3837685207457</v>
       </c>
       <c r="G27" t="n">
-        <v>1.358657888241235e-72</v>
+        <v>2.752934587762642e-74</v>
       </c>
       <c r="H27" t="n">
-        <v>0.006951365941291337</v>
+        <v>0.01301928421089169</v>
       </c>
       <c r="I27" t="n">
         <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K27" t="n">
         <v>80</v>
       </c>
       <c r="L27" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M27" t="n">
-        <v>0.2787456445993031</v>
+        <v>0.2758620689655172</v>
       </c>
       <c r="N27" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O27" t="n">
-        <v>0.03167517574785847</v>
+        <v>0.0352902635563975</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
@@ -2046,34 +2046,34 @@
         <v>16</v>
       </c>
       <c r="F28" t="n">
-        <v>384.3171526993451</v>
+        <v>392.3837685207457</v>
       </c>
       <c r="G28" t="n">
-        <v>1.358657888241235e-72</v>
+        <v>2.752934587762642e-74</v>
       </c>
       <c r="H28" t="n">
-        <v>0.006951365941291337</v>
+        <v>0.01301928421089169</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K28" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L28" t="n">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M28" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.3990610328638498</v>
       </c>
       <c r="N28" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O28" t="n">
-        <v>0.03167517574785847</v>
+        <v>0.0352902635563975</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
@@ -2084,11 +2084,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>caller_is_employee</t>
+          <t>close_code_Information Provided / Training</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -2097,56 +2097,56 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>uint8</t>
         </is>
       </c>
       <c r="E29" t="n">
         <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>85.03539735886675</v>
+        <v>0.8883290064550426</v>
       </c>
       <c r="G29" t="n">
-        <v>2.930712052604616e-20</v>
+        <v>0.3459305333140232</v>
       </c>
       <c r="H29" t="n">
-        <v>0.005773965052043</v>
+        <v>0.00492061072439518</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>4059</v>
+        <v>7058</v>
       </c>
       <c r="K29" t="n">
-        <v>323</v>
+        <v>850</v>
       </c>
       <c r="L29" t="n">
-        <v>4382</v>
+        <v>7908</v>
       </c>
       <c r="M29" t="n">
-        <v>0.07371063441350981</v>
+        <v>0.1074860900354072</v>
       </c>
       <c r="N29" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.01078907443846973</v>
+        <v>-0.002660039725387586</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>caller_is_employee: 0.0</t>
+          <t>close_code_Information Provided / Training: 0.0</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>caller_is_employee</t>
+          <t>close_code_Information Provided / Training</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -2155,56 +2155,56 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>uint8</t>
         </is>
       </c>
       <c r="E30" t="n">
         <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>85.03539735886675</v>
+        <v>0.8883290064550426</v>
       </c>
       <c r="G30" t="n">
-        <v>2.930712052604616e-20</v>
+        <v>0.3459305333140232</v>
       </c>
       <c r="H30" t="n">
-        <v>0.005773965052043</v>
+        <v>0.00492061072439518</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>7723</v>
+        <v>4732</v>
       </c>
       <c r="K30" t="n">
-        <v>1124</v>
+        <v>602</v>
       </c>
       <c r="L30" t="n">
-        <v>8847</v>
+        <v>5334</v>
       </c>
       <c r="M30" t="n">
-        <v>0.1270487170792359</v>
+        <v>0.1128608923884514</v>
       </c>
       <c r="N30" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O30" t="n">
-        <v>0.006565437462831697</v>
+        <v>0.003110882717343499</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>caller_is_employee: 1.0</t>
+          <t>close_code_Information Provided / Training: 1.0</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>has_knowledge_article</t>
+          <t>sla_breached</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -2220,49 +2220,49 @@
         <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>34.30570374311844</v>
+        <v>915.4726472302203</v>
       </c>
       <c r="G31" t="n">
-        <v>4.709993648472096e-09</v>
+        <v>4.248980687842385e-201</v>
       </c>
       <c r="H31" t="n">
-        <v>0.005488917236315931</v>
+        <v>0.003545907502174473</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>6013</v>
+        <v>10592</v>
       </c>
       <c r="K31" t="n">
-        <v>857</v>
+        <v>889</v>
       </c>
       <c r="L31" t="n">
-        <v>6870</v>
+        <v>11481</v>
       </c>
       <c r="M31" t="n">
-        <v>0.124745269286754</v>
+        <v>0.07743227941816914</v>
       </c>
       <c r="N31" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O31" t="n">
-        <v>0.002793592406171039</v>
+        <v>0.001806694035964659</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>has_knowledge_article: 0.0</t>
+          <t>sla_breached: 0.0</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>has_knowledge_article</t>
+          <t>sla_breached</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -2278,49 +2278,49 @@
         <v>2</v>
       </c>
       <c r="F32" t="n">
-        <v>34.30570374311844</v>
+        <v>915.4726472302203</v>
       </c>
       <c r="G32" t="n">
-        <v>4.709993648472096e-09</v>
+        <v>4.248980687842385e-201</v>
       </c>
       <c r="H32" t="n">
-        <v>0.005488917236315931</v>
+        <v>0.003545907502174473</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>5769</v>
+        <v>1198</v>
       </c>
       <c r="K32" t="n">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="L32" t="n">
-        <v>6359</v>
+        <v>1761</v>
       </c>
       <c r="M32" t="n">
-        <v>0.09278188394401636</v>
+        <v>0.3197047132311187</v>
       </c>
       <c r="N32" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.002557690981254038</v>
+        <v>-0.001255176909196423</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>has_knowledge_article: 1.0</t>
+          <t>sla_breached: 1.0</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>close_code_Data Correction</t>
+          <t>has_knowledge_article</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2329,56 +2329,56 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>uint8</t>
+          <t>int64</t>
         </is>
       </c>
       <c r="E33" t="n">
         <v>2</v>
       </c>
       <c r="F33" t="n">
-        <v>116.0908939128296</v>
+        <v>34.81280277953115</v>
       </c>
       <c r="G33" t="n">
-        <v>4.540043543283562e-27</v>
+        <v>3.629786486834646e-09</v>
       </c>
       <c r="H33" t="n">
-        <v>0.002531471778483367</v>
+        <v>0.002345639194990277</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>9516</v>
+        <v>6020</v>
       </c>
       <c r="K33" t="n">
-        <v>1336</v>
+        <v>861</v>
       </c>
       <c r="L33" t="n">
-        <v>10852</v>
+        <v>6881</v>
       </c>
       <c r="M33" t="n">
-        <v>0.123110947290822</v>
+        <v>0.1251271617497457</v>
       </c>
       <c r="N33" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O33" t="n">
-        <v>0.001791479404830765</v>
+        <v>0.001625718186368405</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>close_code_Data Correction: 0.0</t>
+          <t>has_knowledge_article: 0.0</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>close_code_Data Correction</t>
+          <t>has_knowledge_article</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2387,56 +2387,56 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>uint8</t>
+          <t>int64</t>
         </is>
       </c>
       <c r="E34" t="n">
         <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>116.0908939128296</v>
+        <v>34.81280277953115</v>
       </c>
       <c r="G34" t="n">
-        <v>4.540043543283562e-27</v>
+        <v>3.629786486834646e-09</v>
       </c>
       <c r="H34" t="n">
-        <v>0.002531471778483367</v>
+        <v>0.002345639194990277</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>2266</v>
+        <v>5770</v>
       </c>
       <c r="K34" t="n">
-        <v>111</v>
+        <v>591</v>
       </c>
       <c r="L34" t="n">
-        <v>2377</v>
+        <v>6361</v>
       </c>
       <c r="M34" t="n">
-        <v>0.04669751787968027</v>
+        <v>0.09290991982392706</v>
       </c>
       <c r="N34" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.0081044203860378</v>
+        <v>-0.001279302351542694</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>close_code_Data Correction: 1.0</t>
+          <t>has_knowledge_article: 1.0</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>sla_breached</t>
+          <t>caller_is_employee</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2452,49 +2452,49 @@
         <v>2</v>
       </c>
       <c r="F35" t="n">
-        <v>908.9557835042174</v>
+        <v>86.00805738538253</v>
       </c>
       <c r="G35" t="n">
-        <v>1.109051363170596e-199</v>
+        <v>1.792039823210119e-20</v>
       </c>
       <c r="H35" t="n">
-        <v>0.002124437843850688</v>
+        <v>0.002000261713705436</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>10589</v>
+        <v>4076</v>
       </c>
       <c r="K35" t="n">
-        <v>888</v>
+        <v>325</v>
       </c>
       <c r="L35" t="n">
-        <v>11477</v>
+        <v>4401</v>
       </c>
       <c r="M35" t="n">
-        <v>0.07737213557549882</v>
+        <v>0.07384685298795728</v>
       </c>
       <c r="N35" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O35" t="n">
-        <v>0.001762110703982842</v>
+        <v>-0.002567947345023552</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>sla_breached: 0.0</t>
+          <t>caller_is_employee: 0.0</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>sla_breached</t>
+          <t>caller_is_employee</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2510,38 +2510,38 @@
         <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>908.9557835042174</v>
+        <v>86.00805738538253</v>
       </c>
       <c r="G36" t="n">
-        <v>1.109051363170596e-199</v>
+        <v>1.792039823210119e-20</v>
       </c>
       <c r="H36" t="n">
-        <v>0.002124437843850688</v>
+        <v>0.002000261713705436</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1193</v>
+        <v>7714</v>
       </c>
       <c r="K36" t="n">
-        <v>559</v>
+        <v>1127</v>
       </c>
       <c r="L36" t="n">
-        <v>1752</v>
+        <v>8841</v>
       </c>
       <c r="M36" t="n">
-        <v>0.3190639269406393</v>
+        <v>0.1274742676167854</v>
       </c>
       <c r="N36" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O36" t="n">
-        <v>-0.001282773552101948</v>
+        <v>0.001434285848197672</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>sla_breached: 1.0</t>
+          <t>caller_is_employee: 1.0</t>
         </is>
       </c>
     </row>
@@ -2568,34 +2568,34 @@
         <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>40.67857666800625</v>
+        <v>42.314501917315</v>
       </c>
       <c r="G37" t="n">
-        <v>1.794437343421407e-10</v>
+        <v>7.771416267429973e-11</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0008014904885535787</v>
+        <v>0.0003918017624877692</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="K37" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L37" t="n">
         <v>1591</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1565053425518542</v>
+        <v>0.1577624135763671</v>
       </c>
       <c r="N37" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O37" t="n">
-        <v>0.001690620409048965</v>
+        <v>-0.0007551729345986052</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
@@ -2626,34 +2626,34 @@
         <v>2</v>
       </c>
       <c r="F38" t="n">
-        <v>40.67857666800625</v>
+        <v>42.314501917315</v>
       </c>
       <c r="G38" t="n">
-        <v>1.794437343421407e-10</v>
+        <v>7.771416267429973e-11</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0008014904885535787</v>
+        <v>0.0003918017624877692</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>10440</v>
+        <v>10450</v>
       </c>
       <c r="K38" t="n">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="L38" t="n">
-        <v>11638</v>
+        <v>11651</v>
       </c>
       <c r="M38" t="n">
-        <v>0.1029386492524489</v>
+        <v>0.1030812805767745</v>
       </c>
       <c r="N38" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O38" t="n">
-        <v>-0.0006291952978661475</v>
+        <v>5.282873990192227e-05</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
@@ -2684,34 +2684,34 @@
         <v>2</v>
       </c>
       <c r="F39" t="n">
-        <v>109.2587322909771</v>
+        <v>109.391853707005</v>
       </c>
       <c r="G39" t="n">
-        <v>1.424268573634559e-25</v>
+        <v>1.331757529725758e-25</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0007001545460747457</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>4919</v>
+        <v>4926</v>
       </c>
       <c r="K39" t="n">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L39" t="n">
-        <v>5316</v>
+        <v>5325</v>
       </c>
       <c r="M39" t="n">
-        <v>0.07468021068472536</v>
+        <v>0.07492957746478873</v>
       </c>
       <c r="N39" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O39" t="n">
-        <v>0.0006330788419378203</v>
+        <v>0</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
@@ -2742,34 +2742,34 @@
         <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>109.2587322909771</v>
+        <v>109.391853707005</v>
       </c>
       <c r="G40" t="n">
-        <v>1.424268573634559e-25</v>
+        <v>1.331757529725758e-25</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0007001545460747457</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>6863</v>
+        <v>6864</v>
       </c>
       <c r="K40" t="n">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="L40" t="n">
-        <v>7913</v>
+        <v>7917</v>
       </c>
       <c r="M40" t="n">
-        <v>0.1326930367749273</v>
+        <v>0.1330049261083744</v>
       </c>
       <c r="N40" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O40" t="n">
-        <v>-0.0004604209759546812</v>
+        <v>0</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
@@ -2800,10 +2800,10 @@
         <v>2</v>
       </c>
       <c r="F41" t="n">
-        <v>30.01301901709297</v>
+        <v>30.0312876065441</v>
       </c>
       <c r="G41" t="n">
-        <v>4.291552891289624e-08</v>
+        <v>4.251311960370145e-08</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2812,19 +2812,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11346</v>
+        <v>11355</v>
       </c>
       <c r="K41" t="n">
-        <v>1434</v>
+        <v>1439</v>
       </c>
       <c r="L41" t="n">
-        <v>12780</v>
+        <v>12794</v>
       </c>
       <c r="M41" t="n">
-        <v>0.1122065727699531</v>
+        <v>0.1124745974675629</v>
       </c>
       <c r="N41" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -2858,10 +2858,10 @@
         <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>30.01301901709297</v>
+        <v>30.0312876065441</v>
       </c>
       <c r="G42" t="n">
-        <v>4.291552891289624e-08</v>
+        <v>4.251311960370145e-08</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2870,19 +2870,19 @@
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K42" t="n">
         <v>13</v>
       </c>
       <c r="L42" t="n">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0289532293986637</v>
+        <v>0.02901785714285714</v>
       </c>
       <c r="N42" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>2</v>
       </c>
       <c r="F43" t="n">
-        <v>20.72392705923381</v>
+        <v>21.56381917347364</v>
       </c>
       <c r="G43" t="n">
-        <v>5.30489710067143e-06</v>
+        <v>3.422476790024476e-06</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2928,19 +2928,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11073</v>
+        <v>11074</v>
       </c>
       <c r="K43" t="n">
-        <v>1403</v>
+        <v>1408</v>
       </c>
       <c r="L43" t="n">
-        <v>12476</v>
+        <v>12482</v>
       </c>
       <c r="M43" t="n">
-        <v>0.1124559153574864</v>
+        <v>0.1128024355071303</v>
       </c>
       <c r="N43" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -2974,10 +2974,10 @@
         <v>2</v>
       </c>
       <c r="F44" t="n">
-        <v>20.72392705923381</v>
+        <v>21.56381917347364</v>
       </c>
       <c r="G44" t="n">
-        <v>5.30489710067143e-06</v>
+        <v>3.422476790024476e-06</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2986,19 +2986,19 @@
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="K44" t="n">
         <v>44</v>
       </c>
       <c r="L44" t="n">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="M44" t="n">
-        <v>0.05843293492695883</v>
+        <v>0.05789473684210526</v>
       </c>
       <c r="N44" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -3032,10 +3032,10 @@
         <v>2</v>
       </c>
       <c r="F45" t="n">
-        <v>14.97738401036684</v>
+        <v>15.28524034640144</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0001088074403523893</v>
+        <v>9.243595384270451e-05</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3044,19 +3044,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>11384</v>
+        <v>11390</v>
       </c>
       <c r="K45" t="n">
-        <v>1426</v>
+        <v>1431</v>
       </c>
       <c r="L45" t="n">
-        <v>12810</v>
+        <v>12821</v>
       </c>
       <c r="M45" t="n">
-        <v>0.1113192818110851</v>
+        <v>0.1116137586771703</v>
       </c>
       <c r="N45" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -3090,10 +3090,10 @@
         <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>14.97738401036684</v>
+        <v>15.28524034640144</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0001088074403523893</v>
+        <v>9.243595384270451e-05</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3102,19 +3102,19 @@
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K46" t="n">
         <v>21</v>
       </c>
       <c r="L46" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M46" t="n">
-        <v>0.05011933174224344</v>
+        <v>0.0498812351543943</v>
       </c>
       <c r="N46" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -3148,10 +3148,10 @@
         <v>2</v>
       </c>
       <c r="F47" t="n">
-        <v>3.755177606479185</v>
+        <v>3.540962606063545</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05264420264064077</v>
+        <v>0.05987070582593627</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3160,19 +3160,19 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>11625</v>
+        <v>11636</v>
       </c>
       <c r="K47" t="n">
-        <v>1437</v>
+        <v>1442</v>
       </c>
       <c r="L47" t="n">
-        <v>13062</v>
+        <v>13078</v>
       </c>
       <c r="M47" t="n">
-        <v>0.1100137804317869</v>
+        <v>0.110261507875822</v>
       </c>
       <c r="N47" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -3206,10 +3206,10 @@
         <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>3.755177606479185</v>
+        <v>3.540962606063545</v>
       </c>
       <c r="G48" t="n">
-        <v>0.05264420264064077</v>
+        <v>0.05987070582593627</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3218,19 +3218,19 @@
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K48" t="n">
         <v>10</v>
       </c>
       <c r="L48" t="n">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M48" t="n">
-        <v>0.05988023952095808</v>
+        <v>0.06097560975609756</v>
       </c>
       <c r="N48" t="n">
-        <v>0.1093809055862028</v>
+        <v>0.109651110104223</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>

--- a/out/01 factor_values.xlsx
+++ b/out/01 factor_values.xlsx
@@ -538,34 +538,34 @@
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>5086.153335856128</v>
+        <v>5084.708078551253</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8540265712417093</v>
+        <v>0.9174228422786094</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11580</v>
+        <v>11585</v>
       </c>
       <c r="K2" t="n">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="L2" t="n">
-        <v>12246</v>
+        <v>12253</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05438510534051935</v>
+        <v>0.05451726107891945</v>
       </c>
       <c r="N2" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.04997149770573032</v>
+        <v>-0.04992103286120007</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -596,34 +596,34 @@
         <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>5086.153335856128</v>
+        <v>5084.708078551253</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8540265712417093</v>
+        <v>0.9174228422786094</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K3" t="n">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="L3" t="n">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7891566265060241</v>
+        <v>0.7887887887887888</v>
       </c>
       <c r="N3" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5841822769126253</v>
+        <v>0.607251957292854</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -654,34 +654,34 @@
         <v>16</v>
       </c>
       <c r="F4" t="n">
-        <v>1204.914932712188</v>
+        <v>1219.647613092101</v>
       </c>
       <c r="G4" t="n">
-        <v>1.439258204408449e-247</v>
+        <v>9.845271300420358e-251</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0675069979266494</v>
+        <v>0.0475366043163568</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2153</v>
+        <v>2165</v>
       </c>
       <c r="K4" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L4" t="n">
-        <v>2252</v>
+        <v>2266</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04396092362344583</v>
+        <v>0.04457193292144748</v>
       </c>
       <c r="N4" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.02146796566642512</v>
+        <v>-0.02857560401052137</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -712,34 +712,34 @@
         <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>1204.914932712188</v>
+        <v>1219.647613092101</v>
       </c>
       <c r="G5" t="n">
-        <v>1.439258204408449e-247</v>
+        <v>9.845271300420358e-251</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0675069979266494</v>
+        <v>0.0475366043163568</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>2517</v>
+        <v>2525</v>
       </c>
       <c r="K5" t="n">
         <v>123</v>
       </c>
       <c r="L5" t="n">
-        <v>2640</v>
+        <v>2648</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04659090909090909</v>
+        <v>0.04645015105740181</v>
       </c>
       <c r="N5" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.02146796566642512</v>
+        <v>-0.03027084275041146</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -770,34 +770,34 @@
         <v>16</v>
       </c>
       <c r="F6" t="n">
-        <v>1204.914932712188</v>
+        <v>1219.647613092101</v>
       </c>
       <c r="G6" t="n">
-        <v>1.439258204408449e-247</v>
+        <v>9.845271300420358e-251</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0675069979266494</v>
+        <v>0.0475366043163568</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>1482</v>
+        <v>1495</v>
       </c>
       <c r="K6" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L6" t="n">
-        <v>1579</v>
+        <v>1593</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06143128562381254</v>
+        <v>0.06151914626490897</v>
       </c>
       <c r="N6" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.02146796566642512</v>
+        <v>-0.02518962758830892</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -828,34 +828,34 @@
         <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>1204.914932712188</v>
+        <v>1219.647613092101</v>
       </c>
       <c r="G7" t="n">
-        <v>1.439258204408449e-247</v>
+        <v>9.845271300420358e-251</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0675069979266494</v>
+        <v>0.0475366043163568</v>
       </c>
       <c r="I7" t="n">
         <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="K7" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L7" t="n">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="M7" t="n">
-        <v>0.07661290322580645</v>
+        <v>0.07779578606158834</v>
       </c>
       <c r="N7" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.02146796566642512</v>
+        <v>-0.01874304332609061</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -886,34 +886,34 @@
         <v>16</v>
       </c>
       <c r="F8" t="n">
-        <v>1204.914932712188</v>
+        <v>1219.647613092101</v>
       </c>
       <c r="G8" t="n">
-        <v>1.439258204408449e-247</v>
+        <v>9.845271300420358e-251</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0675069979266494</v>
+        <v>0.0475366043163568</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="K8" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L8" t="n">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0960352422907489</v>
+        <v>0.09700176366843033</v>
       </c>
       <c r="N8" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.006867781381455079</v>
+        <v>-0.00178534034749793</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -944,34 +944,34 @@
         <v>16</v>
       </c>
       <c r="F9" t="n">
-        <v>1204.914932712188</v>
+        <v>1219.647613092101</v>
       </c>
       <c r="G9" t="n">
-        <v>1.439258204408449e-247</v>
+        <v>9.845271300420358e-251</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0675069979266494</v>
+        <v>0.0475366043163568</v>
       </c>
       <c r="I9" t="n">
         <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="K9" t="n">
         <v>108</v>
       </c>
       <c r="L9" t="n">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1147715196599362</v>
+        <v>0.1160042964554243</v>
       </c>
       <c r="N9" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.001947394652752912</v>
+        <v>0.000939551190159274</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -1002,13 +1002,13 @@
         <v>16</v>
       </c>
       <c r="F10" t="n">
-        <v>1204.914932712188</v>
+        <v>1219.647613092101</v>
       </c>
       <c r="G10" t="n">
-        <v>1.439258204408449e-247</v>
+        <v>9.845271300420358e-251</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0675069979266494</v>
+        <v>0.0475366043163568</v>
       </c>
       <c r="I10" t="n">
         <v>6</v>
@@ -1017,19 +1017,19 @@
         <v>834</v>
       </c>
       <c r="K10" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L10" t="n">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1515768056968464</v>
+        <v>0.1507128309572301</v>
       </c>
       <c r="N10" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.001947394652752912</v>
+        <v>0.03012638053469417</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1060,13 +1060,13 @@
         <v>16</v>
       </c>
       <c r="F11" t="n">
-        <v>1204.914932712188</v>
+        <v>1219.647613092101</v>
       </c>
       <c r="G11" t="n">
-        <v>1.439258204408449e-247</v>
+        <v>9.845271300420358e-251</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0675069979266494</v>
+        <v>0.0475366043163568</v>
       </c>
       <c r="I11" t="n">
         <v>7</v>
@@ -1075,19 +1075,19 @@
         <v>599</v>
       </c>
       <c r="K11" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L11" t="n">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1794520547945206</v>
+        <v>0.1805745554035568</v>
       </c>
       <c r="N11" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.001947394652752912</v>
+        <v>0.02733583822424317</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
@@ -1118,13 +1118,13 @@
         <v>16</v>
       </c>
       <c r="F12" t="n">
-        <v>1204.914932712188</v>
+        <v>1219.647613092101</v>
       </c>
       <c r="G12" t="n">
-        <v>1.439258204408449e-247</v>
+        <v>9.845271300420358e-251</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0675069979266494</v>
+        <v>0.0475366043163568</v>
       </c>
       <c r="I12" t="n">
         <v>8</v>
@@ -1142,10 +1142,10 @@
         <v>0.2225806451612903</v>
       </c>
       <c r="N12" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O12" t="n">
-        <v>0.06019144052306533</v>
+        <v>0.03255732137851462</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -1176,34 +1176,34 @@
         <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>1204.914932712188</v>
+        <v>1219.647613092101</v>
       </c>
       <c r="G13" t="n">
-        <v>1.439258204408449e-247</v>
+        <v>9.845271300420358e-251</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0675069979266494</v>
+        <v>0.0475366043163568</v>
       </c>
       <c r="I13" t="n">
         <v>9</v>
       </c>
       <c r="J13" t="n">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K13" t="n">
         <v>50</v>
       </c>
       <c r="L13" t="n">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M13" t="n">
-        <v>0.267379679144385</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="N13" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O13" t="n">
-        <v>0.06019144052306533</v>
+        <v>0.03255732137851462</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
@@ -1234,34 +1234,34 @@
         <v>16</v>
       </c>
       <c r="F14" t="n">
-        <v>1204.914932712188</v>
+        <v>1219.647613092101</v>
       </c>
       <c r="G14" t="n">
-        <v>1.439258204408449e-247</v>
+        <v>9.845271300420358e-251</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0675069979266494</v>
+        <v>0.0475366043163568</v>
       </c>
       <c r="I14" t="n">
         <v>10</v>
       </c>
       <c r="J14" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K14" t="n">
         <v>40</v>
       </c>
       <c r="L14" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2150537634408602</v>
+        <v>0.213903743315508</v>
       </c>
       <c r="N14" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O14" t="n">
-        <v>0.06019144052306533</v>
+        <v>0.03255732137851462</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1292,34 +1292,34 @@
         <v>16</v>
       </c>
       <c r="F15" t="n">
-        <v>1204.914932712188</v>
+        <v>1219.647613092101</v>
       </c>
       <c r="G15" t="n">
-        <v>1.439258204408449e-247</v>
+        <v>9.845271300420358e-251</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0675069979266494</v>
+        <v>0.0475366043163568</v>
       </c>
       <c r="I15" t="n">
         <v>11</v>
       </c>
       <c r="J15" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K15" t="n">
         <v>38</v>
       </c>
       <c r="L15" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2435897435897436</v>
+        <v>0.2420382165605096</v>
       </c>
       <c r="N15" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O15" t="n">
-        <v>0.06019144052306533</v>
+        <v>0.03567584085536481</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
@@ -1350,34 +1350,34 @@
         <v>16</v>
       </c>
       <c r="F16" t="n">
-        <v>1204.914932712188</v>
+        <v>1219.647613092101</v>
       </c>
       <c r="G16" t="n">
-        <v>1.439258204408449e-247</v>
+        <v>9.845271300420358e-251</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0675069979266494</v>
+        <v>0.0475366043163568</v>
       </c>
       <c r="I16" t="n">
         <v>12</v>
       </c>
       <c r="J16" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L16" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2411347517730496</v>
+        <v>0.2447552447552448</v>
       </c>
       <c r="N16" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O16" t="n">
-        <v>0.06019144052306533</v>
+        <v>0.03567584085536481</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
@@ -1408,13 +1408,13 @@
         <v>16</v>
       </c>
       <c r="F17" t="n">
-        <v>1204.914932712188</v>
+        <v>1219.647613092101</v>
       </c>
       <c r="G17" t="n">
-        <v>1.439258204408449e-247</v>
+        <v>9.845271300420358e-251</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0675069979266494</v>
+        <v>0.0475366043163568</v>
       </c>
       <c r="I17" t="n">
         <v>13</v>
@@ -1423,19 +1423,19 @@
         <v>129</v>
       </c>
       <c r="K17" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L17" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3064516129032258</v>
+        <v>0.2989130434782609</v>
       </c>
       <c r="N17" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1118903265427702</v>
+        <v>0.09592622125800208</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
@@ -1466,34 +1466,34 @@
         <v>16</v>
       </c>
       <c r="F18" t="n">
-        <v>1204.914932712188</v>
+        <v>1219.647613092101</v>
       </c>
       <c r="G18" t="n">
-        <v>1.439258204408449e-247</v>
+        <v>9.845271300420358e-251</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0675069979266494</v>
+        <v>0.0475366043163568</v>
       </c>
       <c r="I18" t="n">
         <v>14</v>
       </c>
       <c r="J18" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K18" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L18" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M18" t="n">
-        <v>0.34</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="N18" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1118903265427702</v>
+        <v>0.09592622125800208</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
@@ -1524,34 +1524,34 @@
         <v>16</v>
       </c>
       <c r="F19" t="n">
-        <v>1204.914932712188</v>
+        <v>1219.647613092101</v>
       </c>
       <c r="G19" t="n">
-        <v>1.439258204408449e-247</v>
+        <v>9.845271300420358e-251</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0675069979266494</v>
+        <v>0.0475366043163568</v>
       </c>
       <c r="I19" t="n">
         <v>15</v>
       </c>
       <c r="J19" t="n">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="K19" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L19" t="n">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4600840336134454</v>
+        <v>0.4698275862068966</v>
       </c>
       <c r="N19" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1886182581548889</v>
+        <v>0.2072363809955595</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
@@ -1582,34 +1582,34 @@
         <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>220.8241972240276</v>
+        <v>229.8268714047051</v>
       </c>
       <c r="G20" t="n">
-        <v>5.978698520033615e-50</v>
+        <v>6.50278065057951e-52</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03113305331997251</v>
+        <v>0.009510591851889585</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>8702</v>
+        <v>8700</v>
       </c>
       <c r="K20" t="n">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="L20" t="n">
-        <v>9503</v>
+        <v>9497</v>
       </c>
       <c r="M20" t="n">
-        <v>0.08428917184047142</v>
+        <v>0.08392123828577445</v>
       </c>
       <c r="N20" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.01358754557154232</v>
+        <v>-0.0146107968157409</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
@@ -1640,34 +1640,34 @@
         <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>220.8241972240276</v>
+        <v>229.8268714047051</v>
       </c>
       <c r="G21" t="n">
-        <v>5.978698520033615e-50</v>
+        <v>6.50278065057951e-52</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03113305331997251</v>
+        <v>0.009510591851889585</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>3088</v>
+        <v>3096</v>
       </c>
       <c r="K21" t="n">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="L21" t="n">
-        <v>3739</v>
+        <v>3755</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1741107247927253</v>
+        <v>0.1754993342210386</v>
       </c>
       <c r="N21" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O21" t="n">
-        <v>0.03125003461211592</v>
+        <v>0.03573768771380643</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
@@ -1698,34 +1698,34 @@
         <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>116.6857017813586</v>
+        <v>120.4352571348047</v>
       </c>
       <c r="G22" t="n">
-        <v>3.363625883314413e-27</v>
+        <v>5.079785285019881e-28</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02110987240302388</v>
+        <v>0.006221864429556639</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>9525</v>
+        <v>9529</v>
       </c>
       <c r="K22" t="n">
-        <v>1341</v>
+        <v>1347</v>
       </c>
       <c r="L22" t="n">
-        <v>10866</v>
+        <v>10876</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1234124792932082</v>
+        <v>0.1238506803972049</v>
       </c>
       <c r="N22" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O22" t="n">
-        <v>0.00428781991035862</v>
+        <v>0.003362241706797678</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
@@ -1756,34 +1756,34 @@
         <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>116.6857017813586</v>
+        <v>120.4352571348047</v>
       </c>
       <c r="G23" t="n">
-        <v>3.363625883314413e-27</v>
+        <v>5.079785285019881e-28</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02110987240302388</v>
+        <v>0.006221864429556639</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2265</v>
+        <v>2267</v>
       </c>
       <c r="K23" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L23" t="n">
         <v>2376</v>
       </c>
       <c r="M23" t="n">
-        <v>0.04671717171717172</v>
+        <v>0.04587542087542087</v>
       </c>
       <c r="N23" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.03245423634619939</v>
+        <v>-0.008648006978888595</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
@@ -1807,41 +1807,41 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>float64</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>16</v>
       </c>
       <c r="F24" t="n">
-        <v>392.3837685207457</v>
+        <v>397.6277361644023</v>
       </c>
       <c r="G24" t="n">
-        <v>2.752934587762642e-74</v>
+        <v>2.179542287274404e-75</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01301928421089169</v>
+        <v>0.006159906947999291</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>6308</v>
+        <v>6317</v>
       </c>
       <c r="K24" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="L24" t="n">
-        <v>6914</v>
+        <v>6925</v>
       </c>
       <c r="M24" t="n">
-        <v>0.08764824992768296</v>
+        <v>0.08779783393501805</v>
       </c>
       <c r="N24" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.00237484453601966</v>
+        <v>-0.005004185680185222</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
@@ -1865,41 +1865,41 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>float64</t>
         </is>
       </c>
       <c r="E25" t="n">
         <v>16</v>
       </c>
       <c r="F25" t="n">
-        <v>392.3837685207457</v>
+        <v>397.6277361644023</v>
       </c>
       <c r="G25" t="n">
-        <v>2.752934587762642e-74</v>
+        <v>2.179542287274404e-75</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01301928421089169</v>
+        <v>0.006159906947999291</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>4400</v>
+        <v>4402</v>
       </c>
       <c r="K25" t="n">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="L25" t="n">
-        <v>4916</v>
+        <v>4920</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1049633848657445</v>
+        <v>0.1052845528455285</v>
       </c>
       <c r="N25" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.004200132154908678</v>
+        <v>0.0003947571481162926</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
@@ -1923,41 +1923,41 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>float64</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v>16</v>
       </c>
       <c r="F26" t="n">
-        <v>392.3837685207457</v>
+        <v>397.6277361644023</v>
       </c>
       <c r="G26" t="n">
-        <v>2.752934587762642e-74</v>
+        <v>2.179542287274404e-75</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01301928421089169</v>
+        <v>0.006159906947999291</v>
       </c>
       <c r="I26" t="n">
         <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="K26" t="n">
         <v>165</v>
       </c>
       <c r="L26" t="n">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1815181518151815</v>
+        <v>0.1817180616740088</v>
       </c>
       <c r="N26" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0352902635563975</v>
+        <v>0.02328710238224906</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
@@ -1981,41 +1981,41 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>float64</t>
         </is>
       </c>
       <c r="E27" t="n">
         <v>16</v>
       </c>
       <c r="F27" t="n">
-        <v>392.3837685207457</v>
+        <v>397.6277361644023</v>
       </c>
       <c r="G27" t="n">
-        <v>2.752934587762642e-74</v>
+        <v>2.179542287274404e-75</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01301928421089169</v>
+        <v>0.006159906947999291</v>
       </c>
       <c r="I27" t="n">
         <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K27" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L27" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M27" t="n">
-        <v>0.2758620689655172</v>
+        <v>0.2764505119453925</v>
       </c>
       <c r="N27" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O27" t="n">
-        <v>0.0352902635563975</v>
+        <v>0.02328710238224906</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
@@ -2039,41 +2039,41 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>float64</t>
         </is>
       </c>
       <c r="E28" t="n">
         <v>16</v>
       </c>
       <c r="F28" t="n">
-        <v>392.3837685207457</v>
+        <v>397.6277361644023</v>
       </c>
       <c r="G28" t="n">
-        <v>2.752934587762642e-74</v>
+        <v>2.179542287274404e-75</v>
       </c>
       <c r="H28" t="n">
-        <v>0.01301928421089169</v>
+        <v>0.006159906947999291</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="K28" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L28" t="n">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="M28" t="n">
-        <v>0.3990610328638498</v>
+        <v>0.4077669902912621</v>
       </c>
       <c r="N28" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O28" t="n">
-        <v>0.0352902635563975</v>
+        <v>0.02328710238224906</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
@@ -2084,11 +2084,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>close_code_Information Provided / Training</t>
+          <t>caller_is_employee</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -2097,56 +2097,56 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>uint8</t>
+          <t>int64</t>
         </is>
       </c>
       <c r="E29" t="n">
         <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8883290064550426</v>
+        <v>86.92340326302833</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3459305333140232</v>
+        <v>1.128065634331642e-20</v>
       </c>
       <c r="H29" t="n">
-        <v>0.00492061072439518</v>
+        <v>0.005613102857774587</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>7058</v>
+        <v>4112</v>
       </c>
       <c r="K29" t="n">
-        <v>850</v>
+        <v>329</v>
       </c>
       <c r="L29" t="n">
-        <v>7908</v>
+        <v>4441</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1074860900354072</v>
+        <v>0.07408241387074983</v>
       </c>
       <c r="N29" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.002660039725387586</v>
+        <v>-0.01350479925007277</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>close_code_Information Provided / Training: 0.0</t>
+          <t>caller_is_employee: 0.0</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>close_code_Information Provided / Training</t>
+          <t>caller_is_employee</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -2155,56 +2155,56 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>uint8</t>
+          <t>int64</t>
         </is>
       </c>
       <c r="E30" t="n">
         <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8883290064550426</v>
+        <v>86.92340326302833</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3459305333140232</v>
+        <v>1.128065634331642e-20</v>
       </c>
       <c r="H30" t="n">
-        <v>0.00492061072439518</v>
+        <v>0.005613102857774587</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>4732</v>
+        <v>7684</v>
       </c>
       <c r="K30" t="n">
-        <v>602</v>
+        <v>1127</v>
       </c>
       <c r="L30" t="n">
-        <v>5334</v>
+        <v>8811</v>
       </c>
       <c r="M30" t="n">
-        <v>0.1128608923884514</v>
+        <v>0.1279082964476223</v>
       </c>
       <c r="N30" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O30" t="n">
-        <v>0.003110882717343499</v>
+        <v>0.008042413583326469</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>close_code_Information Provided / Training: 1.0</t>
+          <t>caller_is_employee: 1.0</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>sla_breached</t>
+          <t>close_code_Information Provided / Training</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -2213,56 +2213,56 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>uint8</t>
         </is>
       </c>
       <c r="E31" t="n">
         <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>915.4726472302203</v>
+        <v>0.6803916324121152</v>
       </c>
       <c r="G31" t="n">
-        <v>4.248980687842385e-201</v>
+        <v>0.409451899540245</v>
       </c>
       <c r="H31" t="n">
-        <v>0.003545907502174473</v>
+        <v>0.002420080664796069</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>10592</v>
+        <v>7064</v>
       </c>
       <c r="K31" t="n">
-        <v>889</v>
+        <v>855</v>
       </c>
       <c r="L31" t="n">
-        <v>11481</v>
+        <v>7919</v>
       </c>
       <c r="M31" t="n">
-        <v>0.07743227941816914</v>
+        <v>0.1079681778002273</v>
       </c>
       <c r="N31" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O31" t="n">
-        <v>0.001806694035964659</v>
+        <v>-0.007915165728451565</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>sla_breached: 0.0</t>
+          <t>close_code_Information Provided / Training: 0.0</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>sla_breached</t>
+          <t>close_code_Information Provided / Training</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -2271,56 +2271,56 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>uint8</t>
         </is>
       </c>
       <c r="E32" t="n">
         <v>2</v>
       </c>
       <c r="F32" t="n">
-        <v>915.4726472302203</v>
+        <v>0.6803916324121152</v>
       </c>
       <c r="G32" t="n">
-        <v>4.248980687842385e-201</v>
+        <v>0.409451899540245</v>
       </c>
       <c r="H32" t="n">
-        <v>0.003545907502174473</v>
+        <v>0.002420080664796069</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>1198</v>
+        <v>4732</v>
       </c>
       <c r="K32" t="n">
-        <v>563</v>
+        <v>601</v>
       </c>
       <c r="L32" t="n">
-        <v>1761</v>
+        <v>5333</v>
       </c>
       <c r="M32" t="n">
-        <v>0.3197047132311187</v>
+        <v>0.1126945434089631</v>
       </c>
       <c r="N32" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.001255176909196423</v>
+        <v>0.006517926760946549</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>sla_breached: 1.0</t>
+          <t>close_code_Information Provided / Training: 1.0</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>has_knowledge_article</t>
+          <t>sla_breached</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2336,49 +2336,49 @@
         <v>2</v>
       </c>
       <c r="F33" t="n">
-        <v>34.81280277953115</v>
+        <v>900.9033892294275</v>
       </c>
       <c r="G33" t="n">
-        <v>3.629786486834646e-09</v>
+        <v>6.243597253286266e-198</v>
       </c>
       <c r="H33" t="n">
-        <v>0.002345639194990277</v>
+        <v>0.00232410098489939</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>6020</v>
+        <v>10607</v>
       </c>
       <c r="K33" t="n">
-        <v>861</v>
+        <v>898</v>
       </c>
       <c r="L33" t="n">
-        <v>6881</v>
+        <v>11505</v>
       </c>
       <c r="M33" t="n">
-        <v>0.1251271617497457</v>
+        <v>0.07805302042590179</v>
       </c>
       <c r="N33" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O33" t="n">
-        <v>0.001625718186368405</v>
+        <v>0.001816678755332687</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>has_knowledge_article: 0.0</t>
+          <t>sla_breached: 0.0</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>has_knowledge_article</t>
+          <t>sla_breached</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2394,49 +2394,49 @@
         <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>34.81280277953115</v>
+        <v>900.9033892294275</v>
       </c>
       <c r="G34" t="n">
-        <v>3.629786486834646e-09</v>
+        <v>6.243597253286266e-198</v>
       </c>
       <c r="H34" t="n">
-        <v>0.002345639194990277</v>
+        <v>0.00232410098489939</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>5770</v>
+        <v>1189</v>
       </c>
       <c r="K34" t="n">
-        <v>591</v>
+        <v>558</v>
       </c>
       <c r="L34" t="n">
-        <v>6361</v>
+        <v>1747</v>
       </c>
       <c r="M34" t="n">
-        <v>0.09290991982392706</v>
+        <v>0.3194046937607327</v>
       </c>
       <c r="N34" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.001279302351542694</v>
+        <v>-0.001281236595866111</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>has_knowledge_article: 1.0</t>
+          <t>sla_breached: 1.0</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>caller_is_employee</t>
+          <t>has_knowledge_article</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2452,49 +2452,49 @@
         <v>2</v>
       </c>
       <c r="F35" t="n">
-        <v>86.00805738538253</v>
+        <v>35.06926536617871</v>
       </c>
       <c r="G35" t="n">
-        <v>1.792039823210119e-20</v>
+        <v>3.181833609544766e-09</v>
       </c>
       <c r="H35" t="n">
-        <v>0.002000261713705436</v>
+        <v>0.001377551787330197</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>4076</v>
+        <v>6034</v>
       </c>
       <c r="K35" t="n">
-        <v>325</v>
+        <v>865</v>
       </c>
       <c r="L35" t="n">
-        <v>4401</v>
+        <v>6899</v>
       </c>
       <c r="M35" t="n">
-        <v>0.07384685298795728</v>
+        <v>0.1253804899260763</v>
       </c>
       <c r="N35" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.002567947345023552</v>
+        <v>0.004888924192601854</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>caller_is_employee: 0.0</t>
+          <t>has_knowledge_article: 0.0</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>caller_is_employee</t>
+          <t>has_knowledge_article</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2510,38 +2510,38 @@
         <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>86.00805738538253</v>
+        <v>35.06926536617871</v>
       </c>
       <c r="G36" t="n">
-        <v>1.792039823210119e-20</v>
+        <v>3.181833609544766e-09</v>
       </c>
       <c r="H36" t="n">
-        <v>0.002000261713705436</v>
+        <v>0.001377551787330197</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>7714</v>
+        <v>5762</v>
       </c>
       <c r="K36" t="n">
-        <v>1127</v>
+        <v>591</v>
       </c>
       <c r="L36" t="n">
-        <v>8841</v>
+        <v>6353</v>
       </c>
       <c r="M36" t="n">
-        <v>0.1274742676167854</v>
+        <v>0.09302691641744058</v>
       </c>
       <c r="N36" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O36" t="n">
-        <v>0.001434285848197672</v>
+        <v>-0.003446692801224227</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>caller_is_employee: 1.0</t>
+          <t>has_knowledge_article: 1.0</t>
         </is>
       </c>
     </row>
@@ -2568,34 +2568,34 @@
         <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>42.314501917315</v>
+        <v>42.23504842217222</v>
       </c>
       <c r="G37" t="n">
-        <v>7.771416267429973e-11</v>
+        <v>8.093643014044539e-11</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0003918017624877692</v>
+        <v>0.0009843634700822583</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1340</v>
+        <v>1344</v>
       </c>
       <c r="K37" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L37" t="n">
-        <v>1591</v>
+        <v>1596</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1577624135763671</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="N37" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.0007551729345986052</v>
+        <v>0.004962167618189225</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
@@ -2626,34 +2626,34 @@
         <v>2</v>
       </c>
       <c r="F38" t="n">
-        <v>42.314501917315</v>
+        <v>42.23504842217222</v>
       </c>
       <c r="G38" t="n">
-        <v>7.771416267429973e-11</v>
+        <v>8.093643014044539e-11</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0003918017624877692</v>
+        <v>0.0009843634700822583</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>10450</v>
+        <v>10452</v>
       </c>
       <c r="K38" t="n">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="L38" t="n">
-        <v>11651</v>
+        <v>11656</v>
       </c>
       <c r="M38" t="n">
-        <v>0.1030812805767745</v>
+        <v>0.1032944406314344</v>
       </c>
       <c r="N38" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O38" t="n">
-        <v>5.282873990192227e-05</v>
+        <v>-0.00114439906272279</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
@@ -2684,34 +2684,34 @@
         <v>2</v>
       </c>
       <c r="F39" t="n">
-        <v>109.391853707005</v>
+        <v>109.1455868090539</v>
       </c>
       <c r="G39" t="n">
-        <v>1.331757529725758e-25</v>
+        <v>1.507933417490376e-25</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>0.0002100012995132499</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>4926</v>
+        <v>4932</v>
       </c>
       <c r="K39" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L39" t="n">
-        <v>5325</v>
+        <v>5333</v>
       </c>
       <c r="M39" t="n">
-        <v>0.07492957746478873</v>
+        <v>0.07519219951246953</v>
       </c>
       <c r="N39" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>-0.0003510411609796982</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
@@ -2742,13 +2742,13 @@
         <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>109.391853707005</v>
+        <v>109.1455868090539</v>
       </c>
       <c r="G40" t="n">
-        <v>1.331757529725758e-25</v>
+        <v>1.507933417490376e-25</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.0002100012995132499</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -2757,19 +2757,19 @@
         <v>6864</v>
       </c>
       <c r="K40" t="n">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="L40" t="n">
-        <v>7917</v>
+        <v>7919</v>
       </c>
       <c r="M40" t="n">
-        <v>0.1330049261083744</v>
+        <v>0.1332238919055436</v>
       </c>
       <c r="N40" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>0.0001791069994037248</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
@@ -2800,34 +2800,34 @@
         <v>2</v>
       </c>
       <c r="F41" t="n">
-        <v>30.0312876065441</v>
+        <v>31.6108223697001</v>
       </c>
       <c r="G41" t="n">
-        <v>4.251311960370145e-08</v>
+        <v>1.88376839400601e-08</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>0.0001776015571267704</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11355</v>
+        <v>11362</v>
       </c>
       <c r="K41" t="n">
-        <v>1439</v>
+        <v>1444</v>
       </c>
       <c r="L41" t="n">
-        <v>12794</v>
+        <v>12806</v>
       </c>
       <c r="M41" t="n">
-        <v>0.1124745974675629</v>
+        <v>0.1127596439169139</v>
       </c>
       <c r="N41" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>-0.000485078026207536</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
@@ -2858,34 +2858,34 @@
         <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>30.0312876065441</v>
+        <v>31.6108223697001</v>
       </c>
       <c r="G42" t="n">
-        <v>4.251311960370145e-08</v>
+        <v>1.88376839400601e-08</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.0001776015571267704</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L42" t="n">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M42" t="n">
-        <v>0.02901785714285714</v>
+        <v>0.02690582959641256</v>
       </c>
       <c r="N42" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>0.003158360572556723</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
@@ -2916,34 +2916,34 @@
         <v>2</v>
       </c>
       <c r="F43" t="n">
-        <v>21.56381917347364</v>
+        <v>21.61467690125398</v>
       </c>
       <c r="G43" t="n">
-        <v>3.422476790024476e-06</v>
+        <v>3.332916503252091e-06</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>4.138755406552182e-05</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11074</v>
+        <v>11081</v>
       </c>
       <c r="K43" t="n">
-        <v>1408</v>
+        <v>1412</v>
       </c>
       <c r="L43" t="n">
-        <v>12482</v>
+        <v>12493</v>
       </c>
       <c r="M43" t="n">
-        <v>0.1128024355071303</v>
+        <v>0.1130232930441047</v>
       </c>
       <c r="N43" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>-0.0001435126986766982</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
@@ -2974,34 +2974,34 @@
         <v>2</v>
       </c>
       <c r="F44" t="n">
-        <v>21.56381917347364</v>
+        <v>21.61467690125398</v>
       </c>
       <c r="G44" t="n">
-        <v>3.422476790024476e-06</v>
+        <v>3.332916503252091e-06</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>4.138755406552182e-05</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K44" t="n">
         <v>44</v>
       </c>
       <c r="L44" t="n">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="M44" t="n">
-        <v>0.05789473684210526</v>
+        <v>0.05797101449275362</v>
       </c>
       <c r="N44" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>0.0006534176659440533</v>
       </c>
       <c r="P44" t="inlineStr">
         <is>
@@ -3032,10 +3032,10 @@
         <v>2</v>
       </c>
       <c r="F45" t="n">
-        <v>15.28524034640144</v>
+        <v>15.27141667140958</v>
       </c>
       <c r="G45" t="n">
-        <v>9.243595384270451e-05</v>
+        <v>9.311492256008624e-05</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3044,19 +3044,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>11390</v>
+        <v>11397</v>
       </c>
       <c r="K45" t="n">
-        <v>1431</v>
+        <v>1435</v>
       </c>
       <c r="L45" t="n">
-        <v>12821</v>
+        <v>12832</v>
       </c>
       <c r="M45" t="n">
-        <v>0.1116137586771703</v>
+        <v>0.1118298004987531</v>
       </c>
       <c r="N45" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -3090,10 +3090,10 @@
         <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>15.28524034640144</v>
+        <v>15.27141667140958</v>
       </c>
       <c r="G46" t="n">
-        <v>9.243595384270451e-05</v>
+        <v>9.311492256008624e-05</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3102,19 +3102,19 @@
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K46" t="n">
         <v>21</v>
       </c>
       <c r="L46" t="n">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0498812351543943</v>
+        <v>0.05</v>
       </c>
       <c r="N46" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -3148,10 +3148,10 @@
         <v>2</v>
       </c>
       <c r="F47" t="n">
-        <v>3.540962606063545</v>
+        <v>3.486221407548221</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05987070582593627</v>
+        <v>0.06188167984311064</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3160,19 +3160,19 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>11636</v>
+        <v>11643</v>
       </c>
       <c r="K47" t="n">
-        <v>1442</v>
+        <v>1446</v>
       </c>
       <c r="L47" t="n">
-        <v>13078</v>
+        <v>13089</v>
       </c>
       <c r="M47" t="n">
-        <v>0.110261507875822</v>
+        <v>0.1104744441897777</v>
       </c>
       <c r="N47" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -3206,10 +3206,10 @@
         <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>3.540962606063545</v>
+        <v>3.486221407548221</v>
       </c>
       <c r="G48" t="n">
-        <v>0.05987070582593627</v>
+        <v>0.06188167984311064</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3218,19 +3218,19 @@
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K48" t="n">
         <v>10</v>
       </c>
       <c r="L48" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M48" t="n">
-        <v>0.06097560975609756</v>
+        <v>0.06134969325153374</v>
       </c>
       <c r="N48" t="n">
-        <v>0.109651110104223</v>
+        <v>0.1098702082704561</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>

--- a/out/01 factor_values.xlsx
+++ b/out/01 factor_values.xlsx
@@ -538,34 +538,34 @@
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>5084.708078551253</v>
+        <v>5092.189991138204</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9174228422786094</v>
+        <v>0.8281579550181661</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11585</v>
+        <v>11573</v>
       </c>
       <c r="K2" t="n">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="L2" t="n">
-        <v>12253</v>
+        <v>12246</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05451726107891945</v>
+        <v>0.0549567205618161</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.04992103286120007</v>
+        <v>-0.0500700922614565</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -596,34 +596,34 @@
         <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>5084.708078551253</v>
+        <v>5092.189991138204</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9174228422786094</v>
+        <v>0.8281579550181661</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K3" t="n">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="L3" t="n">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7887887887887888</v>
+        <v>0.7912087912087912</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O3" t="n">
-        <v>0.607251957292854</v>
+        <v>0.6100406064340915</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -647,41 +647,41 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>int32</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>16</v>
       </c>
       <c r="F4" t="n">
-        <v>1219.647613092101</v>
+        <v>1257.180129695942</v>
       </c>
       <c r="G4" t="n">
-        <v>9.845271300420358e-251</v>
+        <v>8.48333177665778e-259</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0475366043163568</v>
+        <v>0.07588495907475241</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2165</v>
+        <v>2179</v>
       </c>
       <c r="K4" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L4" t="n">
-        <v>2266</v>
+        <v>2283</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04457193292144748</v>
+        <v>0.04555409548839247</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.02857560401052137</v>
+        <v>-0.02902936262715672</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -705,41 +705,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>int32</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>1219.647613092101</v>
+        <v>1257.180129695942</v>
       </c>
       <c r="G5" t="n">
-        <v>9.845271300420358e-251</v>
+        <v>8.48333177665778e-259</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0475366043163568</v>
+        <v>0.07588495907475241</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>2525</v>
+        <v>2519</v>
       </c>
       <c r="K5" t="n">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L5" t="n">
-        <v>2648</v>
+        <v>2638</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04645015105740181</v>
+        <v>0.04510993176648977</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.03027084275041146</v>
+        <v>-0.02695650968227363</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -763,41 +763,41 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>int32</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>16</v>
       </c>
       <c r="F6" t="n">
-        <v>1219.647613092101</v>
+        <v>1257.180129695942</v>
       </c>
       <c r="G6" t="n">
-        <v>9.845271300420358e-251</v>
+        <v>8.48333177665778e-259</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0475366043163568</v>
+        <v>0.07588495907475241</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>1495</v>
+        <v>1488</v>
       </c>
       <c r="K6" t="n">
         <v>98</v>
       </c>
       <c r="L6" t="n">
-        <v>1593</v>
+        <v>1586</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06151914626490897</v>
+        <v>0.0617906683480454</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.02518962758830892</v>
+        <v>-0.02695650968227363</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -821,41 +821,41 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>int32</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>1219.647613092101</v>
+        <v>1257.180129695942</v>
       </c>
       <c r="G7" t="n">
-        <v>9.845271300420358e-251</v>
+        <v>8.48333177665778e-259</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0475366043163568</v>
+        <v>0.07588495907475241</v>
       </c>
       <c r="I7" t="n">
         <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>1138</v>
+        <v>1131</v>
       </c>
       <c r="K7" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L7" t="n">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="M7" t="n">
-        <v>0.07779578606158834</v>
+        <v>0.07973962571196094</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.01874304332609061</v>
+        <v>-0.01375203417990668</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -879,41 +879,41 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>int32</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>16</v>
       </c>
       <c r="F8" t="n">
-        <v>1219.647613092101</v>
+        <v>1257.180129695942</v>
       </c>
       <c r="G8" t="n">
-        <v>9.845271300420358e-251</v>
+        <v>8.48333177665778e-259</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0475366043163568</v>
+        <v>0.07588495907475241</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="K8" t="n">
         <v>110</v>
       </c>
       <c r="L8" t="n">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="M8" t="n">
-        <v>0.09700176366843033</v>
+        <v>0.09743135518157661</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.00178534034749793</v>
+        <v>0.001810962059429808</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -937,41 +937,41 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>int32</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>16</v>
       </c>
       <c r="F9" t="n">
-        <v>1219.647613092101</v>
+        <v>1257.180129695942</v>
       </c>
       <c r="G9" t="n">
-        <v>9.845271300420358e-251</v>
+        <v>8.48333177665778e-259</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0475366043163568</v>
+        <v>0.07588495907475241</v>
       </c>
       <c r="I9" t="n">
         <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K9" t="n">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L9" t="n">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1160042964554243</v>
+        <v>0.1123110151187905</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O9" t="n">
-        <v>0.000939551190159274</v>
+        <v>0.001810962059429808</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -995,41 +995,41 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>int32</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>16</v>
       </c>
       <c r="F10" t="n">
-        <v>1219.647613092101</v>
+        <v>1257.180129695942</v>
       </c>
       <c r="G10" t="n">
-        <v>9.845271300420358e-251</v>
+        <v>8.48333177665778e-259</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0475366043163568</v>
+        <v>0.07588495907475241</v>
       </c>
       <c r="I10" t="n">
         <v>6</v>
       </c>
       <c r="J10" t="n">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="K10" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L10" t="n">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1507128309572301</v>
+        <v>0.1525076765609007</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03012638053469417</v>
+        <v>0.01288915778335706</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1053,41 +1053,41 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>int32</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>16</v>
       </c>
       <c r="F11" t="n">
-        <v>1219.647613092101</v>
+        <v>1257.180129695942</v>
       </c>
       <c r="G11" t="n">
-        <v>9.845271300420358e-251</v>
+        <v>8.48333177665778e-259</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0475366043163568</v>
+        <v>0.07588495907475241</v>
       </c>
       <c r="I11" t="n">
         <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="K11" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L11" t="n">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1805745554035568</v>
+        <v>0.1829268292682927</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02733583822424317</v>
+        <v>0.01288915778335706</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
@@ -1111,41 +1111,41 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>int32</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>16</v>
       </c>
       <c r="F12" t="n">
-        <v>1219.647613092101</v>
+        <v>1257.180129695942</v>
       </c>
       <c r="G12" t="n">
-        <v>9.845271300420358e-251</v>
+        <v>8.48333177665778e-259</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0475366043163568</v>
+        <v>0.07588495907475241</v>
       </c>
       <c r="I12" t="n">
         <v>8</v>
       </c>
       <c r="J12" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K12" t="n">
         <v>69</v>
       </c>
       <c r="L12" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2225806451612903</v>
+        <v>0.2211538461538461</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O12" t="n">
-        <v>0.03255732137851462</v>
+        <v>0.0470174587864336</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -1169,41 +1169,41 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>int32</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>1219.647613092101</v>
+        <v>1257.180129695942</v>
       </c>
       <c r="G13" t="n">
-        <v>9.845271300420358e-251</v>
+        <v>8.48333177665778e-259</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0475366043163568</v>
+        <v>0.07588495907475241</v>
       </c>
       <c r="I13" t="n">
         <v>9</v>
       </c>
       <c r="J13" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K13" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" t="n">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.2538860103626943</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O13" t="n">
-        <v>0.03255732137851462</v>
+        <v>0.0470174587864336</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
@@ -1227,41 +1227,41 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>int32</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>16</v>
       </c>
       <c r="F14" t="n">
-        <v>1219.647613092101</v>
+        <v>1257.180129695942</v>
       </c>
       <c r="G14" t="n">
-        <v>9.845271300420358e-251</v>
+        <v>8.48333177665778e-259</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0475366043163568</v>
+        <v>0.07588495907475241</v>
       </c>
       <c r="I14" t="n">
         <v>10</v>
       </c>
       <c r="J14" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K14" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L14" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M14" t="n">
-        <v>0.213903743315508</v>
+        <v>0.2146596858638743</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O14" t="n">
-        <v>0.03255732137851462</v>
+        <v>0.0470174587864336</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1285,41 +1285,41 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>int32</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>16</v>
       </c>
       <c r="F15" t="n">
-        <v>1219.647613092101</v>
+        <v>1257.180129695942</v>
       </c>
       <c r="G15" t="n">
-        <v>9.845271300420358e-251</v>
+        <v>8.48333177665778e-259</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0475366043163568</v>
+        <v>0.07588495907475241</v>
       </c>
       <c r="I15" t="n">
         <v>11</v>
       </c>
       <c r="J15" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K15" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L15" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2420382165605096</v>
+        <v>0.2532467532467532</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O15" t="n">
-        <v>0.03567584085536481</v>
+        <v>0.084292935840069</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
@@ -1343,41 +1343,41 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>int32</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>16</v>
       </c>
       <c r="F16" t="n">
-        <v>1219.647613092101</v>
+        <v>1257.180129695942</v>
       </c>
       <c r="G16" t="n">
-        <v>9.845271300420358e-251</v>
+        <v>8.48333177665778e-259</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0475366043163568</v>
+        <v>0.07588495907475241</v>
       </c>
       <c r="I16" t="n">
         <v>12</v>
       </c>
       <c r="J16" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K16" t="n">
         <v>35</v>
       </c>
       <c r="L16" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2447552447552448</v>
+        <v>0.2482269503546099</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O16" t="n">
-        <v>0.03567584085536481</v>
+        <v>0.1060490350554973</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
@@ -1401,41 +1401,41 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>int32</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>16</v>
       </c>
       <c r="F17" t="n">
-        <v>1219.647613092101</v>
+        <v>1257.180129695942</v>
       </c>
       <c r="G17" t="n">
-        <v>9.845271300420358e-251</v>
+        <v>8.48333177665778e-259</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0475366043163568</v>
+        <v>0.07588495907475241</v>
       </c>
       <c r="I17" t="n">
         <v>13</v>
       </c>
       <c r="J17" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="K17" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L17" t="n">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2989130434782609</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="N17" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O17" t="n">
-        <v>0.09592622125800208</v>
+        <v>0.1060490350554973</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
@@ -1459,41 +1459,41 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>int32</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>16</v>
       </c>
       <c r="F18" t="n">
-        <v>1219.647613092101</v>
+        <v>1257.180129695942</v>
       </c>
       <c r="G18" t="n">
-        <v>9.845271300420358e-251</v>
+        <v>8.48333177665778e-259</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0475366043163568</v>
+        <v>0.07588495907475241</v>
       </c>
       <c r="I18" t="n">
         <v>14</v>
       </c>
       <c r="J18" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K18" t="n">
         <v>35</v>
       </c>
       <c r="L18" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.3465346534653465</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O18" t="n">
-        <v>0.09592622125800208</v>
+        <v>0.1060490350554973</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
@@ -1517,20 +1517,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>int32</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>16</v>
       </c>
       <c r="F19" t="n">
-        <v>1219.647613092101</v>
+        <v>1257.180129695942</v>
       </c>
       <c r="G19" t="n">
-        <v>9.845271300420358e-251</v>
+        <v>8.48333177665778e-259</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0475366043163568</v>
+        <v>0.07588495907475241</v>
       </c>
       <c r="I19" t="n">
         <v>15</v>
@@ -1539,19 +1539,19 @@
         <v>246</v>
       </c>
       <c r="K19" t="n">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="L19" t="n">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4698275862068966</v>
+        <v>0.4788135593220339</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O19" t="n">
-        <v>0.2072363809955595</v>
+        <v>0.1679382960941808</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
@@ -1582,34 +1582,34 @@
         <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>229.8268714047051</v>
+        <v>228.1239131884054</v>
       </c>
       <c r="G20" t="n">
-        <v>6.50278065057951e-52</v>
+        <v>1.529300995221543e-51</v>
       </c>
       <c r="H20" t="n">
-        <v>0.009510591851889585</v>
+        <v>0.03604976869833777</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>8700</v>
+        <v>8685</v>
       </c>
       <c r="K20" t="n">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="L20" t="n">
-        <v>9497</v>
+        <v>9488</v>
       </c>
       <c r="M20" t="n">
-        <v>0.08392123828577445</v>
+        <v>0.08463322091062395</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.0146107968157409</v>
+        <v>-0.02064419431967895</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
@@ -1640,34 +1640,34 @@
         <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>229.8268714047051</v>
+        <v>228.1239131884054</v>
       </c>
       <c r="G21" t="n">
-        <v>6.50278065057951e-52</v>
+        <v>1.529300995221543e-51</v>
       </c>
       <c r="H21" t="n">
-        <v>0.009510591851889585</v>
+        <v>0.03604976869833777</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="K21" t="n">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="L21" t="n">
-        <v>3755</v>
+        <v>3759</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1754993342210386</v>
+        <v>0.1761106677307795</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O21" t="n">
-        <v>0.03573768771380643</v>
+        <v>0.04886936269507297</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
@@ -1678,11 +1678,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>close_code_Data Correction</t>
+          <t>close_code_Information Provided / Training</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1698,49 +1698,49 @@
         <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>120.4352571348047</v>
+        <v>0.4465915044955309</v>
       </c>
       <c r="G22" t="n">
-        <v>5.079785285019881e-28</v>
+        <v>0.5039580546878374</v>
       </c>
       <c r="H22" t="n">
-        <v>0.006221864429556639</v>
+        <v>0.01941880190963343</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>9529</v>
+        <v>7044</v>
       </c>
       <c r="K22" t="n">
-        <v>1347</v>
+        <v>862</v>
       </c>
       <c r="L22" t="n">
-        <v>10876</v>
+        <v>7906</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1238506803972049</v>
+        <v>0.1090311156083987</v>
       </c>
       <c r="N22" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O22" t="n">
-        <v>0.003362241706797678</v>
+        <v>-0.01373907580264028</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>close_code_Data Correction: 0.0</t>
+          <t>close_code_Information Provided / Training: 0.0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>close_code_Data Correction</t>
+          <t>close_code_Information Provided / Training</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1756,49 +1756,49 @@
         <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>120.4352571348047</v>
+        <v>0.4465915044955309</v>
       </c>
       <c r="G23" t="n">
-        <v>5.079785285019881e-28</v>
+        <v>0.5039580546878374</v>
       </c>
       <c r="H23" t="n">
-        <v>0.006221864429556639</v>
+        <v>0.01941880190963343</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2267</v>
+        <v>4738</v>
       </c>
       <c r="K23" t="n">
-        <v>109</v>
+        <v>603</v>
       </c>
       <c r="L23" t="n">
-        <v>2376</v>
+        <v>5341</v>
       </c>
       <c r="M23" t="n">
-        <v>0.04587542087542087</v>
+        <v>0.1129002059539412</v>
       </c>
       <c r="N23" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.008648006978888595</v>
+        <v>0.009600903394871241</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>close_code_Data Correction: 1.0</t>
+          <t>close_code_Information Provided / Training: 1.0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>reassignment_count</t>
+          <t>caller_is_employee</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1807,56 +1807,56 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>float64</t>
+          <t>int64</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>397.6277361644023</v>
+        <v>83.80762975576576</v>
       </c>
       <c r="G24" t="n">
-        <v>2.179542287274404e-75</v>
+        <v>5.453393717197261e-20</v>
       </c>
       <c r="H24" t="n">
-        <v>0.006159906947999291</v>
+        <v>0.01548728146001643</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>6317</v>
+        <v>4136</v>
       </c>
       <c r="K24" t="n">
-        <v>608</v>
+        <v>338</v>
       </c>
       <c r="L24" t="n">
-        <v>6925</v>
+        <v>4474</v>
       </c>
       <c r="M24" t="n">
-        <v>0.08779783393501805</v>
+        <v>0.07554760840411265</v>
       </c>
       <c r="N24" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.005004185680185222</v>
+        <v>-0.01265844223435578</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>reassignment_count: 0.0</t>
+          <t>caller_is_employee: 0.0</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>reassignment_count</t>
+          <t>caller_is_employee</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1865,45 +1865,45 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>float64</t>
+          <t>int64</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>397.6277361644023</v>
+        <v>83.80762975576576</v>
       </c>
       <c r="G25" t="n">
-        <v>2.179542287274404e-75</v>
+        <v>5.453393717197261e-20</v>
       </c>
       <c r="H25" t="n">
-        <v>0.006159906947999291</v>
+        <v>0.01548728146001643</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>4402</v>
+        <v>7646</v>
       </c>
       <c r="K25" t="n">
-        <v>518</v>
+        <v>1127</v>
       </c>
       <c r="L25" t="n">
-        <v>4920</v>
+        <v>8773</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1052845528455285</v>
+        <v>0.1284623275960333</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0003947571481162926</v>
+        <v>0.007570554178729982</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>reassignment_count: 1.0</t>
+          <t>caller_is_employee: 1.0</t>
         </is>
       </c>
     </row>
@@ -1930,38 +1930,38 @@
         <v>16</v>
       </c>
       <c r="F26" t="n">
-        <v>397.6277361644023</v>
+        <v>412.5782679072584</v>
       </c>
       <c r="G26" t="n">
-        <v>2.179542287274404e-75</v>
+        <v>1.568792188957606e-78</v>
       </c>
       <c r="H26" t="n">
-        <v>0.006159906947999291</v>
+        <v>0.01446973926677739</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>743</v>
+        <v>6290</v>
       </c>
       <c r="K26" t="n">
-        <v>165</v>
+        <v>606</v>
       </c>
       <c r="L26" t="n">
-        <v>908</v>
+        <v>6896</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1817180616740088</v>
+        <v>0.08787703016241299</v>
       </c>
       <c r="N26" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02328710238224906</v>
+        <v>-0.003868025272335054</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>reassignment_count: 2.0</t>
+          <t>reassignment_count: 0.0</t>
         </is>
       </c>
     </row>
@@ -1988,38 +1988,38 @@
         <v>16</v>
       </c>
       <c r="F27" t="n">
-        <v>397.6277361644023</v>
+        <v>412.5782679072584</v>
       </c>
       <c r="G27" t="n">
-        <v>2.179542287274404e-75</v>
+        <v>1.568792188957606e-78</v>
       </c>
       <c r="H27" t="n">
-        <v>0.006159906947999291</v>
+        <v>0.01446973926677739</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>212</v>
+        <v>4411</v>
       </c>
       <c r="K27" t="n">
-        <v>81</v>
+        <v>522</v>
       </c>
       <c r="L27" t="n">
-        <v>293</v>
+        <v>4933</v>
       </c>
       <c r="M27" t="n">
-        <v>0.2764505119453925</v>
+        <v>0.1058179606730184</v>
       </c>
       <c r="N27" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O27" t="n">
-        <v>0.02328710238224906</v>
+        <v>-1.212218357235506e-06</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>reassignment_count: 3.0</t>
+          <t>reassignment_count: 1.0</t>
         </is>
       </c>
     </row>
@@ -2046,49 +2046,49 @@
         <v>16</v>
       </c>
       <c r="F28" t="n">
-        <v>397.6277361644023</v>
+        <v>412.5782679072584</v>
       </c>
       <c r="G28" t="n">
-        <v>2.179542287274404e-75</v>
+        <v>1.568792188957606e-78</v>
       </c>
       <c r="H28" t="n">
-        <v>0.006159906947999291</v>
+        <v>0.01446973926677739</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>122</v>
+        <v>751</v>
       </c>
       <c r="K28" t="n">
-        <v>84</v>
+        <v>169</v>
       </c>
       <c r="L28" t="n">
-        <v>206</v>
+        <v>920</v>
       </c>
       <c r="M28" t="n">
-        <v>0.4077669902912621</v>
+        <v>0.183695652173913</v>
       </c>
       <c r="N28" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O28" t="n">
-        <v>0.02328710238224906</v>
+        <v>0.0273474742312764</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>reassignment_count: 4.0</t>
+          <t>reassignment_count: 2.0</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>caller_is_employee</t>
+          <t>reassignment_count</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -2097,56 +2097,56 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>float64</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F29" t="n">
-        <v>86.92340326302833</v>
+        <v>412.5782679072584</v>
       </c>
       <c r="G29" t="n">
-        <v>1.128065634331642e-20</v>
+        <v>1.568792188957606e-78</v>
       </c>
       <c r="H29" t="n">
-        <v>0.005613102857774587</v>
+        <v>0.01446973926677739</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>4112</v>
+        <v>209</v>
       </c>
       <c r="K29" t="n">
-        <v>329</v>
+        <v>82</v>
       </c>
       <c r="L29" t="n">
-        <v>4441</v>
+        <v>291</v>
       </c>
       <c r="M29" t="n">
-        <v>0.07408241387074983</v>
+        <v>0.281786941580756</v>
       </c>
       <c r="N29" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.01350479925007277</v>
+        <v>0.0273474742312764</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>caller_is_employee: 0.0</t>
+          <t>reassignment_count: 3.0</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>caller_is_employee</t>
+          <t>reassignment_count</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -2155,56 +2155,56 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>float64</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F30" t="n">
-        <v>86.92340326302833</v>
+        <v>412.5782679072584</v>
       </c>
       <c r="G30" t="n">
-        <v>1.128065634331642e-20</v>
+        <v>1.568792188957606e-78</v>
       </c>
       <c r="H30" t="n">
-        <v>0.005613102857774587</v>
+        <v>0.01446973926677739</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J30" t="n">
-        <v>7684</v>
+        <v>121</v>
       </c>
       <c r="K30" t="n">
-        <v>1127</v>
+        <v>86</v>
       </c>
       <c r="L30" t="n">
-        <v>8811</v>
+        <v>207</v>
       </c>
       <c r="M30" t="n">
-        <v>0.1279082964476223</v>
+        <v>0.4154589371980676</v>
       </c>
       <c r="N30" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O30" t="n">
-        <v>0.008042413583326469</v>
+        <v>0.0273474742312764</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>caller_is_employee: 1.0</t>
+          <t>reassignment_count: 4.0</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>close_code_Information Provided / Training</t>
+          <t>has_knowledge_article</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -2213,56 +2213,56 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>uint8</t>
+          <t>int64</t>
         </is>
       </c>
       <c r="E31" t="n">
         <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>0.6803916324121152</v>
+        <v>31.16121867954963</v>
       </c>
       <c r="G31" t="n">
-        <v>0.409451899540245</v>
+        <v>2.374630093836708e-08</v>
       </c>
       <c r="H31" t="n">
-        <v>0.002420080664796069</v>
+        <v>0.003907921314528814</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>7064</v>
+        <v>6050</v>
       </c>
       <c r="K31" t="n">
-        <v>855</v>
+        <v>866</v>
       </c>
       <c r="L31" t="n">
-        <v>7919</v>
+        <v>6916</v>
       </c>
       <c r="M31" t="n">
-        <v>0.1079681778002273</v>
+        <v>0.1252168883747831</v>
       </c>
       <c r="N31" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.007915165728451565</v>
+        <v>0.002467491526168389</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>close_code_Information Provided / Training: 0.0</t>
+          <t>has_knowledge_article: 0.0</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>close_code_Information Provided / Training</t>
+          <t>has_knowledge_article</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -2271,45 +2271,45 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>uint8</t>
+          <t>int64</t>
         </is>
       </c>
       <c r="E32" t="n">
         <v>2</v>
       </c>
       <c r="F32" t="n">
-        <v>0.6803916324121152</v>
+        <v>31.16121867954963</v>
       </c>
       <c r="G32" t="n">
-        <v>0.409451899540245</v>
+        <v>2.374630093836708e-08</v>
       </c>
       <c r="H32" t="n">
-        <v>0.002420080664796069</v>
+        <v>0.003907921314528814</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>4732</v>
+        <v>5732</v>
       </c>
       <c r="K32" t="n">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L32" t="n">
-        <v>5333</v>
+        <v>6331</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1126945434089631</v>
+        <v>0.09461380508608434</v>
       </c>
       <c r="N32" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O32" t="n">
-        <v>0.006517926760946549</v>
+        <v>0.0005369611667874752</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>close_code_Information Provided / Training: 1.0</t>
+          <t>has_knowledge_article: 1.0</t>
         </is>
       </c>
     </row>
@@ -2336,34 +2336,34 @@
         <v>2</v>
       </c>
       <c r="F33" t="n">
-        <v>900.9033892294275</v>
+        <v>942.0908075192066</v>
       </c>
       <c r="G33" t="n">
-        <v>6.243597253286266e-198</v>
+        <v>6.950472456256092e-207</v>
       </c>
       <c r="H33" t="n">
-        <v>0.00232410098489939</v>
+        <v>0.003103394089759474</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>10607</v>
+        <v>10594</v>
       </c>
       <c r="K33" t="n">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="L33" t="n">
-        <v>11505</v>
+        <v>11488</v>
       </c>
       <c r="M33" t="n">
-        <v>0.07805302042590179</v>
+        <v>0.07782033426183844</v>
       </c>
       <c r="N33" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O33" t="n">
-        <v>0.001816678755332687</v>
+        <v>0.001718513740104413</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
@@ -2394,34 +2394,34 @@
         <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>900.9033892294275</v>
+        <v>942.0908075192066</v>
       </c>
       <c r="G34" t="n">
-        <v>6.243597253286266e-198</v>
+        <v>6.950472456256092e-207</v>
       </c>
       <c r="H34" t="n">
-        <v>0.00232410098489939</v>
+        <v>0.003103394089759474</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="K34" t="n">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="L34" t="n">
-        <v>1747</v>
+        <v>1759</v>
       </c>
       <c r="M34" t="n">
-        <v>0.3194046937607327</v>
+        <v>0.3246162592382035</v>
       </c>
       <c r="N34" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.001281236595866111</v>
+        <v>-0.001175356547636355</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>has_knowledge_article</t>
+          <t>close_code_Reboot / Restart</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2445,52 +2445,52 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>uint8</t>
         </is>
       </c>
       <c r="E35" t="n">
         <v>2</v>
       </c>
       <c r="F35" t="n">
-        <v>35.06926536617871</v>
+        <v>31.37291815963541</v>
       </c>
       <c r="G35" t="n">
-        <v>3.181833609544766e-09</v>
+        <v>2.129303318114019e-08</v>
       </c>
       <c r="H35" t="n">
-        <v>0.001377551787330197</v>
+        <v>0.002220262839033624</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>6034</v>
+        <v>11353</v>
       </c>
       <c r="K35" t="n">
-        <v>865</v>
+        <v>1453</v>
       </c>
       <c r="L35" t="n">
-        <v>6899</v>
+        <v>12806</v>
       </c>
       <c r="M35" t="n">
-        <v>0.1253804899260763</v>
+        <v>0.1134624394814931</v>
       </c>
       <c r="N35" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O35" t="n">
-        <v>0.004888924192601854</v>
+        <v>-0.0004798641183796776</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>has_knowledge_article: 0.0</t>
+          <t>close_code_Reboot / Restart: 0.0</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>has_knowledge_article</t>
+          <t>close_code_Reboot / Restart</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2503,45 +2503,45 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>uint8</t>
         </is>
       </c>
       <c r="E36" t="n">
         <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>35.06926536617871</v>
+        <v>31.37291815963541</v>
       </c>
       <c r="G36" t="n">
-        <v>3.181833609544766e-09</v>
+        <v>2.129303318114019e-08</v>
       </c>
       <c r="H36" t="n">
-        <v>0.001377551787330197</v>
+        <v>0.002220262839033624</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>5762</v>
+        <v>429</v>
       </c>
       <c r="K36" t="n">
-        <v>591</v>
+        <v>12</v>
       </c>
       <c r="L36" t="n">
-        <v>6353</v>
+        <v>441</v>
       </c>
       <c r="M36" t="n">
-        <v>0.09302691641744058</v>
+        <v>0.0272108843537415</v>
       </c>
       <c r="N36" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O36" t="n">
-        <v>-0.003446692801224227</v>
+        <v>0.00290209799076345</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>has_knowledge_article: 1.0</t>
+          <t>close_code_Reboot / Restart: 1.0</t>
         </is>
       </c>
     </row>
@@ -2568,34 +2568,34 @@
         <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>42.23504842217222</v>
+        <v>37.13716479571343</v>
       </c>
       <c r="G37" t="n">
-        <v>8.093643014044539e-11</v>
+        <v>1.101050928906596e-09</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0009843634700822583</v>
+        <v>0.0007380035089618395</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1344</v>
+        <v>1350</v>
       </c>
       <c r="K37" t="n">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L37" t="n">
-        <v>1596</v>
+        <v>1599</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.1557223264540338</v>
       </c>
       <c r="N37" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O37" t="n">
-        <v>0.004962167618189225</v>
+        <v>-0.001056843058807017</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
@@ -2626,34 +2626,34 @@
         <v>2</v>
       </c>
       <c r="F38" t="n">
-        <v>42.23504842217222</v>
+        <v>37.13716479571343</v>
       </c>
       <c r="G38" t="n">
-        <v>8.093643014044539e-11</v>
+        <v>1.101050928906596e-09</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0009843634700822583</v>
+        <v>0.0007380035089618395</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>10452</v>
+        <v>10432</v>
       </c>
       <c r="K38" t="n">
-        <v>1204</v>
+        <v>1216</v>
       </c>
       <c r="L38" t="n">
-        <v>11656</v>
+        <v>11648</v>
       </c>
       <c r="M38" t="n">
-        <v>0.1032944406314344</v>
+        <v>0.1043956043956044</v>
       </c>
       <c r="N38" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O38" t="n">
-        <v>-0.00114439906272279</v>
+        <v>0.0001044883548317055</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
@@ -2684,34 +2684,34 @@
         <v>2</v>
       </c>
       <c r="F39" t="n">
-        <v>109.1455868090539</v>
+        <v>102.8065078049167</v>
       </c>
       <c r="G39" t="n">
-        <v>1.507933417490376e-25</v>
+        <v>3.69533624371533e-24</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0002100012995132499</v>
+        <v>0.0005619128200327663</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>4932</v>
+        <v>4925</v>
       </c>
       <c r="K39" t="n">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="L39" t="n">
-        <v>5333</v>
+        <v>5335</v>
       </c>
       <c r="M39" t="n">
-        <v>0.07519219951246953</v>
+        <v>0.07685098406747891</v>
       </c>
       <c r="N39" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O39" t="n">
-        <v>-0.0003510411609796982</v>
+        <v>0.0005860032217928912</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
@@ -2742,34 +2742,34 @@
         <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>109.1455868090539</v>
+        <v>102.8065078049167</v>
       </c>
       <c r="G40" t="n">
-        <v>1.507933417490376e-25</v>
+        <v>3.69533624371533e-24</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0002100012995132499</v>
+        <v>0.0005619128200327663</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>6864</v>
+        <v>6857</v>
       </c>
       <c r="K40" t="n">
         <v>1055</v>
       </c>
       <c r="L40" t="n">
-        <v>7919</v>
+        <v>7912</v>
       </c>
       <c r="M40" t="n">
-        <v>0.1332238919055436</v>
+        <v>0.1333417593528817</v>
       </c>
       <c r="N40" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O40" t="n">
-        <v>0.0001791069994037248</v>
+        <v>-0.0002642270422294896</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
@@ -2780,11 +2780,11 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>close_code_Reboot / Restart</t>
+          <t>close_code_Data Correction</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2800,49 +2800,49 @@
         <v>2</v>
       </c>
       <c r="F41" t="n">
-        <v>31.6108223697001</v>
+        <v>118.3582804409064</v>
       </c>
       <c r="G41" t="n">
-        <v>1.88376839400601e-08</v>
+        <v>1.447344220452242e-27</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0001776015571267704</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11362</v>
+        <v>9524</v>
       </c>
       <c r="K41" t="n">
-        <v>1444</v>
+        <v>1354</v>
       </c>
       <c r="L41" t="n">
-        <v>12806</v>
+        <v>10878</v>
       </c>
       <c r="M41" t="n">
-        <v>0.1127596439169139</v>
+        <v>0.1244714101856959</v>
       </c>
       <c r="N41" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O41" t="n">
-        <v>-0.000485078026207536</v>
+        <v>0</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>close_code_Reboot / Restart: 0.0</t>
+          <t>close_code_Data Correction: 0.0</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>close_code_Reboot / Restart</t>
+          <t>close_code_Data Correction</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2858,38 +2858,38 @@
         <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>31.6108223697001</v>
+        <v>118.3582804409064</v>
       </c>
       <c r="G42" t="n">
-        <v>1.88376839400601e-08</v>
+        <v>1.447344220452242e-27</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0001776015571267704</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>434</v>
+        <v>2258</v>
       </c>
       <c r="K42" t="n">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="L42" t="n">
-        <v>446</v>
+        <v>2369</v>
       </c>
       <c r="M42" t="n">
-        <v>0.02690582959641256</v>
+        <v>0.04685521317011397</v>
       </c>
       <c r="N42" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O42" t="n">
-        <v>0.003158360572556723</v>
+        <v>0</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>close_code_Reboot / Restart: 1.0</t>
+          <t>close_code_Data Correction: 1.0</t>
         </is>
       </c>
     </row>
@@ -2916,34 +2916,34 @@
         <v>2</v>
       </c>
       <c r="F43" t="n">
-        <v>21.61467690125398</v>
+        <v>24.57884854687371</v>
       </c>
       <c r="G43" t="n">
-        <v>3.332916503252091e-06</v>
+        <v>7.133040263298417e-07</v>
       </c>
       <c r="H43" t="n">
-        <v>4.138755406552182e-05</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11081</v>
+        <v>11074</v>
       </c>
       <c r="K43" t="n">
-        <v>1412</v>
+        <v>1424</v>
       </c>
       <c r="L43" t="n">
-        <v>12493</v>
+        <v>12498</v>
       </c>
       <c r="M43" t="n">
-        <v>0.1130232930441047</v>
+        <v>0.1139382301168187</v>
       </c>
       <c r="N43" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O43" t="n">
-        <v>-0.0001435126986766982</v>
+        <v>0</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
@@ -2974,34 +2974,34 @@
         <v>2</v>
       </c>
       <c r="F44" t="n">
-        <v>21.61467690125398</v>
+        <v>24.57884854687371</v>
       </c>
       <c r="G44" t="n">
-        <v>3.332916503252091e-06</v>
+        <v>7.133040263298417e-07</v>
       </c>
       <c r="H44" t="n">
-        <v>4.138755406552182e-05</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="K44" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L44" t="n">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="M44" t="n">
-        <v>0.05797101449275362</v>
+        <v>0.05473965287049399</v>
       </c>
       <c r="N44" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O44" t="n">
-        <v>0.0006534176659440533</v>
+        <v>0</v>
       </c>
       <c r="P44" t="inlineStr">
         <is>
@@ -3032,10 +3032,10 @@
         <v>2</v>
       </c>
       <c r="F45" t="n">
-        <v>15.27141667140958</v>
+        <v>10.21101912764689</v>
       </c>
       <c r="G45" t="n">
-        <v>9.311492256008624e-05</v>
+        <v>0.001396040065543618</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3044,19 +3044,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>11397</v>
+        <v>11385</v>
       </c>
       <c r="K45" t="n">
-        <v>1435</v>
+        <v>1439</v>
       </c>
       <c r="L45" t="n">
-        <v>12832</v>
+        <v>12824</v>
       </c>
       <c r="M45" t="n">
-        <v>0.1118298004987531</v>
+        <v>0.112211478477854</v>
       </c>
       <c r="N45" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -3090,10 +3090,10 @@
         <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>15.27141667140958</v>
+        <v>10.21101912764689</v>
       </c>
       <c r="G46" t="n">
-        <v>9.311492256008624e-05</v>
+        <v>0.001396040065543618</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3102,19 +3102,19 @@
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K46" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L46" t="n">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="M46" t="n">
-        <v>0.05</v>
+        <v>0.06146572104018912</v>
       </c>
       <c r="N46" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -3148,10 +3148,10 @@
         <v>2</v>
       </c>
       <c r="F47" t="n">
-        <v>3.486221407548221</v>
+        <v>3.745106367170496</v>
       </c>
       <c r="G47" t="n">
-        <v>0.06188167984311064</v>
+        <v>0.05296235631384372</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3160,19 +3160,19 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>11643</v>
+        <v>11627</v>
       </c>
       <c r="K47" t="n">
-        <v>1446</v>
+        <v>1455</v>
       </c>
       <c r="L47" t="n">
-        <v>13089</v>
+        <v>13082</v>
       </c>
       <c r="M47" t="n">
-        <v>0.1104744441897777</v>
+        <v>0.1112215257605871</v>
       </c>
       <c r="N47" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -3206,10 +3206,10 @@
         <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>3.486221407548221</v>
+        <v>3.745106367170496</v>
       </c>
       <c r="G48" t="n">
-        <v>0.06188167984311064</v>
+        <v>0.05296235631384372</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3218,19 +3218,19 @@
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K48" t="n">
         <v>10</v>
       </c>
       <c r="L48" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M48" t="n">
-        <v>0.06134969325153374</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="N48" t="n">
-        <v>0.1098702082704561</v>
+        <v>0.1105910772250285</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
